--- a/tests/norm_calc.xlsx
+++ b/tests/norm_calc.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekm/Library/CloudStorage/Dropbox/Python2/SIMPLE/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B722336-8B95-3549-8906-8F9952AD157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18735886-2EFD-5549-9BB1-7D79F7553AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27140" yWindow="13740" windowWidth="24960" windowHeight="18380" activeTab="2" xr2:uid="{01BA9E70-D18B-7643-8268-CBB1C12F35BE}"/>
+    <workbookView xWindow="-28640" yWindow="11800" windowWidth="28800" windowHeight="19440" activeTab="3" xr2:uid="{01BA9E70-D18B-7643-8268-CBB1C12F35BE}"/>
   </bookViews>
   <sheets>
     <sheet name="largest_offset" sheetId="2" r:id="rId1"/>
     <sheet name="better_linear" sheetId="3" r:id="rId2"/>
     <sheet name="simplified_linear" sheetId="4" r:id="rId3"/>
+    <sheet name="simple" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="45">
   <si>
     <t>solar</t>
   </si>
@@ -180,6 +181,21 @@
   </si>
   <si>
     <t>Multirow small df, lower largest offset</t>
+  </si>
+  <si>
+    <t>sabu/mass</t>
+  </si>
+  <si>
+    <t>mass number</t>
+  </si>
+  <si>
+    <t>solar/mass</t>
+  </si>
+  <si>
+    <t>Test 8 - convert_unit of abu</t>
+  </si>
+  <si>
+    <t>R_smp</t>
   </si>
 </sst>
 </file>
@@ -652,10 +668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FDD01-1D65-F542-8BBC-908B4EFE6AC2}">
-  <dimension ref="A1:AC74"/>
+  <dimension ref="A1:AD83"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -738,2519 +755,2991 @@
     </row>
     <row r="2" spans="1:29">
       <c r="E2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>91.90680716</v>
+        <v>92</v>
       </c>
       <c r="G2">
-        <v>93.905083590000004</v>
+        <v>94</v>
       </c>
       <c r="H2">
-        <v>94.905837439999999</v>
+        <v>95</v>
       </c>
       <c r="I2">
-        <v>95.90467477</v>
+        <v>96</v>
       </c>
       <c r="J2">
-        <v>96.906016899999997</v>
+        <v>97</v>
       </c>
       <c r="K2">
-        <v>97.905403609999993</v>
+        <v>98</v>
       </c>
       <c r="L2">
-        <v>99.907467999999994</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>95.907588910000001</v>
+        <v>96</v>
       </c>
       <c r="O2">
-        <v>97.905287000000001</v>
+        <v>98</v>
       </c>
       <c r="P2">
-        <v>98.905930299999994</v>
+        <v>99</v>
       </c>
       <c r="Q2">
-        <v>99.904210500000005</v>
+        <v>100</v>
       </c>
       <c r="R2">
-        <v>100.9055731</v>
+        <v>101</v>
       </c>
       <c r="S2">
-        <v>101.9043403</v>
+        <v>102</v>
       </c>
       <c r="T2">
-        <v>103.9054254</v>
+        <v>104</v>
       </c>
       <c r="V2">
-        <v>102.9054941</v>
+        <v>103</v>
       </c>
       <c r="X2">
-        <v>101.90563210000001</v>
+        <v>102</v>
       </c>
       <c r="Y2">
-        <v>103.9040304</v>
+        <v>104</v>
       </c>
       <c r="Z2">
-        <v>104.9050795</v>
+        <v>105</v>
       </c>
       <c r="AA2">
-        <v>105.9034803</v>
+        <v>106</v>
       </c>
       <c r="AB2">
-        <v>107.9038918</v>
+        <v>108</v>
       </c>
       <c r="AC2">
-        <v>109.9051729</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>91.90680716</v>
+      </c>
+      <c r="G3">
+        <v>93.905083590000004</v>
+      </c>
+      <c r="H3">
+        <v>94.905837439999999</v>
+      </c>
+      <c r="I3">
+        <v>95.90467477</v>
+      </c>
+      <c r="J3">
+        <v>96.906016899999997</v>
+      </c>
+      <c r="K3">
+        <v>97.905403609999993</v>
+      </c>
+      <c r="L3">
+        <v>99.907467999999994</v>
+      </c>
+      <c r="N3">
+        <v>95.907588910000001</v>
+      </c>
+      <c r="O3">
+        <v>97.905287000000001</v>
+      </c>
+      <c r="P3">
+        <v>98.905930299999994</v>
+      </c>
+      <c r="Q3">
+        <v>99.904210500000005</v>
+      </c>
+      <c r="R3">
+        <v>100.9055731</v>
+      </c>
+      <c r="S3">
+        <v>101.9043403</v>
+      </c>
+      <c r="T3">
+        <v>103.9054254</v>
+      </c>
+      <c r="V3">
+        <v>102.9054941</v>
+      </c>
+      <c r="X3">
+        <v>101.90563210000001</v>
+      </c>
+      <c r="Y3">
+        <v>103.9040304</v>
+      </c>
+      <c r="Z3">
+        <v>104.9050795</v>
+      </c>
+      <c r="AA3">
+        <v>105.9034803</v>
+      </c>
+      <c r="AB3">
+        <v>107.9038918</v>
+      </c>
+      <c r="AC3">
+        <v>109.9051729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F3">
-        <f>(LN(F$2)-LN($I$2))/(LN($K$2)-LN($I$2))</f>
+      <c r="F4">
+        <f>(LN(F$3)-LN($I$3))/(LN($K$3)-LN($I$3))</f>
         <v>-2.0622654896035155</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:L3" si="0">(LN(G$2)-LN($I$2))/(LN($K$2)-LN($I$2))</f>
+      <c r="G4">
+        <f t="shared" ref="G4:L4" si="0">(LN(G$3)-LN($I$3))/(LN($K$3)-LN($I$3))</f>
         <v>-1.0204963126320516</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>-0.5070714180540099</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>0.50306948827691667</v>
       </c>
-      <c r="K3">
-        <f>(LN(K$2)-LN($I$2))/(LN($K$2)-LN($I$2))</f>
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="K4">
+        <f>(LN(K$3)-LN($I$3))/(LN($K$3)-LN($I$3))</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
         <v>1.9804174217763351</v>
       </c>
-      <c r="N3">
-        <f>(LN(N$2)-LN($R$2))/(LN($P$2)-LN($R$2))</f>
+      <c r="N4">
+        <f>(LN(N$3)-LN($R$3))/(LN($P$3)-LN($R$3))</f>
         <v>2.5379770247331326</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:T3" si="1">(LN(O$2)-LN($R$2))/(LN($P$2)-LN($R$2))</f>
+      <c r="O4">
+        <f t="shared" ref="O4:T4" si="1">(LN(O$3)-LN($R$3))/(LN($P$3)-LN($R$3))</f>
         <v>1.5080269493949841</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="Q4">
         <f t="shared" si="1"/>
         <v>0.49826876459393649</v>
       </c>
-      <c r="R3">
+      <c r="R4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f t="shared" si="1"/>
         <v>-0.49207598133426794</v>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f t="shared" si="1"/>
         <v>-1.4636297272902596</v>
       </c>
-      <c r="X3">
-        <f>(LN(X$2)-LN($Z$2))/(LN($AB$2)-LN($Z$2))</f>
+      <c r="X4">
+        <f>(LN(X$3)-LN($Z$3))/(LN($AB$3)-LN($Z$3))</f>
         <v>-1.0292255886504609</v>
       </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:AC3" si="2">(LN(Y$2)-LN($Z$2))/(LN($AB$2)-LN($Z$2))</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:AC4" si="2">(LN(Y$3)-LN($Z$3))/(LN($AB$3)-LN($Z$3))</f>
         <v>-0.34018970353228256</v>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="AA4">
         <f t="shared" si="2"/>
         <v>0.33607160984629325</v>
       </c>
-      <c r="AB3">
+      <c r="AB4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AC3">
+      <c r="AC4">
         <f t="shared" si="2"/>
         <v>1.6520130166548828</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.37</v>
-      </c>
-      <c r="G5">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="I5">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="J5">
-        <v>0.245</v>
-      </c>
-      <c r="K5">
-        <v>0.622</v>
-      </c>
-      <c r="L5">
-        <v>0.25</v>
-      </c>
-      <c r="N5">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="O5">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="P5">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="Q5">
-        <v>0.224</v>
-      </c>
-      <c r="R5">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="S5">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="T5">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="V5">
-        <v>0.37</v>
-      </c>
-      <c r="X5">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="Y5">
-        <v>0.15129999999999999</v>
-      </c>
-      <c r="Z5">
-        <v>0.30320000000000003</v>
-      </c>
-      <c r="AA5">
-        <v>0.371</v>
-      </c>
-      <c r="AB5">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="AC5">
-        <v>0.159</v>
-      </c>
-    </row>
     <row r="6" spans="1:29">
       <c r="E6" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="G6">
-        <v>2.0969999999999999E-3</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="H6">
-        <v>0.28118399999999999</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="I6">
-        <v>0.509575</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J6">
-        <v>0.15606500000000001</v>
+        <v>0.245</v>
       </c>
       <c r="K6">
-        <v>0.51128399999999996</v>
+        <v>0.622</v>
       </c>
       <c r="L6">
-        <v>1.125E-2</v>
+        <v>0.25</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P6">
-        <v>7.5137000000000009E-2</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.24617600000000001</v>
+        <v>0.224</v>
       </c>
       <c r="R6">
-        <v>5.3807999999999995E-2</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="S6">
-        <v>0.28100000000000003</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="T6">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="V6">
-        <v>5.6239999999999998E-2</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y6">
-        <v>0.18398079999999997</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="Z6">
-        <v>4.7602400000000003E-2</v>
+        <v>0.30320000000000003</v>
       </c>
       <c r="AA6">
-        <v>0.216664</v>
+        <v>0.371</v>
       </c>
       <c r="AB6">
-        <v>0.267814</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="AC6">
-        <v>4.7699999999999999E-3</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="E7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <f>F6/SUM($F$6:$L$6)</f>
-        <v>0</v>
+        <f>F6/F2</f>
+        <v>4.0217391304347826E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:L7" si="3">G6/SUM($F$6:$L$6)</f>
-        <v>1.4251200342518119E-3</v>
+        <f t="shared" ref="G7:AC7" si="3">G6/G2</f>
+        <v>2.4787234042553193E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>0.1910924900863431</v>
+        <v>4.252631578947369E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>0.34630688672096666</v>
+        <v>4.4270833333333332E-3</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>0.10606168724153985</v>
+        <v>2.5257731958762885E-3</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>0.34746832217091245</v>
+        <v>6.3469387755102037E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>1.03125E-3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>3.3673469387755106E-4</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>2.2929292929292932E-3</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>2.2400000000000002E-3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>3.00990099009901E-3</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>5.5098039215686276E-3</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>3.1923076923076926E-3</v>
+      </c>
+      <c r="X7">
+        <f>X6/X2</f>
+        <v>1.3627450980392155E-4</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>1.4548076923076923E-3</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>2.8876190476190477E-3</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="3"/>
+        <v>3.3240740740740739E-3</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="3"/>
+        <v>1.4454545454545456E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.0969999999999999E-3</v>
+      </c>
+      <c r="H8">
+        <v>0.28118399999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.509575</v>
+      </c>
+      <c r="J8">
+        <v>0.15606500000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.51128399999999996</v>
+      </c>
+      <c r="L8">
+        <v>1.125E-2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>7.5137000000000009E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.24617600000000001</v>
+      </c>
+      <c r="R8">
+        <v>5.3807999999999995E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="T8">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0.18398079999999997</v>
+      </c>
+      <c r="Z8">
+        <v>4.7602400000000003E-2</v>
+      </c>
+      <c r="AA8">
+        <v>0.216664</v>
+      </c>
+      <c r="AB8">
+        <v>0.267814</v>
+      </c>
+      <c r="AC8">
+        <v>4.7699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <f>F8/SUM($F$8:$L$8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:L9" si="4">G8/SUM($F$8:$L$8)</f>
+        <v>1.4251200342518119E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0.1910924900863431</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.34630688672096666</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.10606168724153985</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.34746832217091245</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
         <v>7.6454937459861155E-3</v>
       </c>
-      <c r="N7">
-        <f t="shared" ref="N7:T7" si="4">N6/SUM($N$6:$T$6)</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="4"/>
+      <c r="N9">
+        <f t="shared" ref="N9:T9" si="5">N8/SUM($N$8:$T$8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
         <v>0.11308643164499618</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="4"/>
+      <c r="Q9">
+        <f t="shared" si="5"/>
         <v>0.37051206990748337</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="4"/>
+      <c r="R9">
+        <f t="shared" si="5"/>
         <v>8.0984797289670243E-2</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="4"/>
+      <c r="S9">
+        <f t="shared" si="5"/>
         <v>0.42292462158781857</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="4"/>
+      <c r="T9">
+        <f t="shared" si="5"/>
         <v>1.2492079570031652E-2</v>
       </c>
-      <c r="X7">
-        <f t="shared" ref="X7:AC7" si="5">X6/SUM($X$6:$AC$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="5"/>
+      <c r="X9">
+        <f t="shared" ref="X9:AC9" si="6">X8/SUM($X$8:$AC$8)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="6"/>
         <v>0.25523423514409471</v>
       </c>
-      <c r="Z7">
-        <f t="shared" si="5"/>
+      <c r="Z9">
+        <f t="shared" si="6"/>
         <v>6.6038207003248472E-2</v>
       </c>
-      <c r="AA7">
-        <f t="shared" si="5"/>
+      <c r="AA9">
+        <f t="shared" si="6"/>
         <v>0.30057522482378674</v>
       </c>
-      <c r="AB7">
-        <f t="shared" si="5"/>
+      <c r="AB9">
+        <f t="shared" si="6"/>
         <v>0.37153497240408018</v>
       </c>
-      <c r="AC7">
-        <f t="shared" si="5"/>
+      <c r="AC9">
+        <f t="shared" si="6"/>
         <v>6.6173606247898259E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="7" t="s">
+    <row r="10" spans="1:29">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <f>F8/F2</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>G8/G2</f>
+        <v>2.2308510638297872E-5</v>
+      </c>
+      <c r="H10">
+        <f>H8/H2</f>
+        <v>2.9598315789473684E-3</v>
+      </c>
+      <c r="I10">
+        <f>I8/I2</f>
+        <v>5.3080729166666667E-3</v>
+      </c>
+      <c r="J10">
+        <f>J8/J2</f>
+        <v>1.6089175257731959E-3</v>
+      </c>
+      <c r="K10">
+        <f>K8/K2</f>
+        <v>5.2171836734693873E-3</v>
+      </c>
+      <c r="L10">
+        <f>L8/L2</f>
+        <v>1.125E-4</v>
+      </c>
+      <c r="N10">
+        <f>N8/N2</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>O8/O2</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>P8/P2</f>
+        <v>7.5895959595959604E-4</v>
+      </c>
+      <c r="Q10">
+        <f>Q8/Q2</f>
+        <v>2.4617599999999999E-3</v>
+      </c>
+      <c r="R10">
+        <f>R8/R2</f>
+        <v>5.3275247524752465E-4</v>
+      </c>
+      <c r="S10">
+        <f>S8/S2</f>
+        <v>2.7549019607843138E-3</v>
+      </c>
+      <c r="T10">
+        <f>T8/T2</f>
+        <v>7.9807692307692311E-5</v>
+      </c>
+      <c r="X10">
+        <f>X8/X2</f>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f>Y8/Y2</f>
+        <v>1.7690461538461535E-3</v>
+      </c>
+      <c r="Z10">
+        <f>Z8/Z2</f>
+        <v>4.5335619047619051E-4</v>
+      </c>
+      <c r="AA10">
+        <f>AA8/AA2</f>
+        <v>2.0439999999999998E-3</v>
+      </c>
+      <c r="AB10">
+        <f>AB8/AB2</f>
+        <v>2.4797592592592592E-3</v>
+      </c>
+      <c r="AC10">
+        <f>AC8/AC2</f>
+        <v>4.3363636363636365E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="X12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <f>X12</f>
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" ref="Z12:AC12" si="6">Y12</f>
-        <v>1</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="W13" t="str">
-        <f>IF(W$5="","",((1-$C14)*W$5)+($C14*W$6*W12))</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f t="shared" ref="X13:AC13" si="7">IF(X$5="","",X$5+(X$6*X12)/$C14)</f>
-        <v>1.3899999999999999E-2</v>
+      <c r="F13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="X13" s="6">
+        <v>1</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="7"/>
-        <v>0.15131460900496452</v>
+        <f>X13</f>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="7"/>
-        <v>0.30320377987104052</v>
+        <f t="shared" ref="Z13:AC13" si="7">Y13</f>
+        <v>1</v>
       </c>
       <c r="AA13">
         <f t="shared" si="7"/>
-        <v>0.37101720421615536</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <f t="shared" si="7"/>
-        <v>0.35902126578455779</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" t="str">
+        <f>IF(W$6="","",((1-$C15)*W$6)+($C15*W$8*W13))</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>IF(X$6="","",X$6+(X$8*X13)/$C15)</f>
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Y14">
+        <f>IF(Y$6="","",Y$6+(Y$8*Y13)/$C15)</f>
+        <v>0.15131460900496452</v>
+      </c>
+      <c r="Z14">
+        <f>IF(Z$6="","",Z$6+(Z$8*Z13)/$C15)</f>
+        <v>0.30320377987104052</v>
+      </c>
+      <c r="AA14">
+        <f>IF(AA$6="","",AA$6+(AA$8*AA13)/$C15)</f>
+        <v>0.37101720421615536</v>
+      </c>
+      <c r="AB14">
+        <f>IF(AB$6="","",AB$6+(AB$8*AB13)/$C15)</f>
+        <v>0.35902126578455779</v>
+      </c>
+      <c r="AC14">
+        <f>IF(AC$6="","",AC$6+(AC$8*AC13)/$C15)</f>
         <v>0.15900037876209736</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="8" cm="1">
-        <f t="array" ref="A14">MAX(ABS(F14:AC14))</f>
+    <row r="15" spans="1:29">
+      <c r="A15" s="8" cm="1">
+        <f t="array" ref="A15">MAX(ABS(F15:AC15))</f>
         <v>1.0000032368639999</v>
       </c>
-      <c r="B14" s="4">
-        <f>C14*A14</f>
+      <c r="B15" s="4">
+        <f>C15*A15</f>
         <v>12593.697925866318</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="5">
         <v>12593.657161910824</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="X14">
-        <f t="shared" ref="X14:AC14" si="8">(((X13/$Z13)/(X$5/$Z$5))*(($AB13/$Z13)/($AB$5/$Z$5))^(X$3*-1)-1)*10000</f>
+      <c r="X15">
+        <f t="shared" ref="X15:AC15" si="8">(((X14/$Z14)/(X$6/$Z$6))*(($AB14/$Z14)/($AB$6/$Z$6))^(X$4*-1)-1)*10000</f>
         <v>0.3566883891559236</v>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f t="shared" si="8"/>
         <v>1.0000032368639999</v>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA14">
+      <c r="AA15">
         <f t="shared" si="8"/>
         <v>0.18187762013344155</v>
       </c>
-      <c r="AB14">
+      <c r="AB15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC14">
+      <c r="AC15">
         <f t="shared" si="8"/>
         <v>-0.87341729879897301</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:29">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f>F16</f>
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:L16" si="9">G16</f>
-        <v>1</v>
-      </c>
-      <c r="I16">
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f>F17</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:L17" si="9">G17</f>
+        <v>1</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N16" s="6">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <f>N16</f>
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ref="P16:T16" si="10">O16</f>
-        <v>1</v>
-      </c>
-      <c r="Q16">
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f>N17</f>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:T17" si="10">O17</f>
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="X16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <f>X16</f>
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" ref="Z16:AC16" si="11">Y16</f>
-        <v>1</v>
-      </c>
-      <c r="AA16">
+      <c r="X17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <f>X17</f>
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" ref="Z17:AC17" si="11">Y17</f>
+        <v>1</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AB16">
+      <c r="AB17">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AC16">
+      <c r="AC17">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:29">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="F17">
-        <f>IF(F$5="","",F$5+(F$6*F16)/$C18)</f>
+      <c r="F18">
+        <f>IF(F$6="","",F$6+(F$8*F17)/$C19)</f>
         <v>0.37</v>
       </c>
-      <c r="G17">
-        <f t="shared" ref="F17:L17" si="12">IF(G$5="","",G$5+(G$6*G16)/$C18)</f>
+      <c r="G18">
+        <f>IF(G$6="","",G$6+(G$8*G17)/$C19)</f>
         <v>0.23300013317853954</v>
       </c>
-      <c r="H17">
+      <c r="H18">
+        <f>IF(H$6="","",H$6+(H$8*H17)/$C19)</f>
+        <v>0.40401785773698684</v>
+      </c>
+      <c r="I18">
+        <f>IF(I$6="","",I$6+(I$8*I17)/$C19)</f>
+        <v>0.42503236263914396</v>
+      </c>
+      <c r="J18">
+        <f>IF(J$6="","",J$6+(J$8*J17)/$C19)</f>
+        <v>0.24500991154447921</v>
+      </c>
+      <c r="K18">
+        <f>IF(K$6="","",K$6+(K$8*K17)/$C19)</f>
+        <v>0.62203247117616067</v>
+      </c>
+      <c r="L18">
+        <f>IF(L$6="","",L$6+(L$8*L17)/$C19)</f>
+        <v>0.25000071447714345</v>
+      </c>
+      <c r="M18" t="str">
+        <f>IF(M$6="","",((1-$C19)*M$6)+($C19*M$8*M17))</f>
+        <v/>
+      </c>
+      <c r="N18">
+        <f>IF(N$6="","",N$6+(N$8*N17)/$C19)</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O18">
+        <f>IF(O$6="","",O$6+(O$8*O17)/$C19)</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P18">
+        <f>IF(P$6="","",P$6+(P$8*P17)/$C19)</f>
+        <v>0.22700477188170018</v>
+      </c>
+      <c r="Q18">
+        <f>IF(Q$6="","",Q$6+(Q$8*Q17)/$C19)</f>
+        <v>0.22401563441113459</v>
+      </c>
+      <c r="R18">
+        <f>IF(R$6="","",R$6+(R$8*R17)/$C19)</f>
+        <v>0.30400341729654529</v>
+      </c>
+      <c r="S18">
+        <f>IF(S$6="","",S$6+(S$8*S17)/$C19)</f>
+        <v>0.56201784605131622</v>
+      </c>
+      <c r="T18">
+        <f>IF(T$6="","",T$6+(T$8*T17)/$C19)</f>
+        <v>0.33200052712535916</v>
+      </c>
+      <c r="U18" t="str">
+        <f>IF(U$6="","",((1-$C19)*U$6)+($C19*U$8*U17))</f>
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <f>IF(V$6="","",((1-$C19)*V$6)+($C19*V$8*V17))</f>
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <f>IF(W$6="","",((1-$C19)*W$6)+($C19*W$8*W17))</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>IF(X$6="","",X$6+(X$8*X17)/$C19)</f>
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Y18">
+        <f>IF(Y$6="","",Y$6+(Y$8*Y17)/$C19)</f>
+        <v>0.15131168445123841</v>
+      </c>
+      <c r="Z18">
+        <f>IF(Z$6="","",Z$6+(Z$8*Z17)/$C19)</f>
+        <v>0.30320302318460207</v>
+      </c>
+      <c r="AA18">
+        <f>IF(AA$6="","",AA$6+(AA$8*AA17)/$C19)</f>
+        <v>0.37101376013118281</v>
+      </c>
+      <c r="AB18">
+        <f>IF(AB$6="","",AB$6+(AB$8*AB17)/$C19)</f>
+        <v>0.35901700862059499</v>
+      </c>
+      <c r="AC18">
+        <f>IF(AC$6="","",AC$6+(AC$8*AC17)/$C19)</f>
+        <v>0.15900030293830883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="8" cm="1">
+        <f t="array" ref="A19">MAX(ABS(F19:AC19))</f>
+        <v>1.0000000189402947</v>
+      </c>
+      <c r="B19" s="4">
+        <f>C19*A19</f>
+        <v>15745.780416261641</v>
+      </c>
+      <c r="C19" s="5">
+        <v>15745.780118031926</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:L19" si="12">(((G18/$I18)/(G$6/$I$6))*(($K18/$I18)/($K$6/$I$6))^(G$4*-1)-1)*10000</f>
+        <v>-1.0000000189402947</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="12"/>
-        <v>0.40401785773698684</v>
-      </c>
-      <c r="I17">
+        <v>-0.44082165921333072</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="12"/>
-        <v>0.42503236263914396</v>
-      </c>
-      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="12"/>
-        <v>0.24500991154447921</v>
-      </c>
-      <c r="K17">
+        <v>-0.23645561253893277</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="12"/>
-        <v>0.62203247117616067</v>
-      </c>
-      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="12"/>
-        <v>0.25000071447714345</v>
-      </c>
-      <c r="M17" t="str">
-        <f>IF(M$5="","",((1-$C18)*M$5)+($C18*M$6*M16))</f>
+        <v>-0.25872309084018497</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:T19" si="13">(((O18/$R18)/(O$6/$R$6))*(($P18/$R18)/($P$6/$R$6))^(O$4*-1)-1)*10000</f>
+        <v>-0.25989572330020749</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="13"/>
+        <v>0.53681251196868729</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="13"/>
+        <v>0.25325933787012644</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="13"/>
+        <v>4.6613433932751747E-2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19:AC19" si="14">(((X18/$Z18)/(X$6/$Z$6))*(($AB18/$Z18)/($AB$6/$Z$6))^(X$4*-1)-1)*10000</f>
+        <v>0.28528512164838205</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="14"/>
+        <v>0.79981440876286669</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="14"/>
+        <v>0.14546825545913578</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="14"/>
+        <v>-0.69857992528121748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>F21</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:L21" si="15">G21</f>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <f>N21</f>
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:T21" si="16">O21</f>
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="X21" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <f>X21</f>
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" ref="Z21:AC21" si="17">Y21</f>
+        <v>3</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22">
+        <f>IF(F$6="","",F$6+(F$8*F21)/$C23)</f>
+        <v>0.37</v>
+      </c>
+      <c r="G22">
+        <f>IF(G$6="","",G$6+(G$8*G21)/$C23)</f>
+        <v>0.23300005550413128</v>
+      </c>
+      <c r="H22">
+        <f>IF(H$6="","",H$6+(H$8*H21)/$C23)</f>
+        <v>0.40400744247670345</v>
+      </c>
+      <c r="I22">
+        <f>IF(I$6="","",I$6+(I$8*I21)/$C23)</f>
+        <v>0.42501348760977209</v>
+      </c>
+      <c r="J22">
+        <f>IF(J$6="","",J$6+(J$8*J21)/$C23)</f>
+        <v>0.24500413078314101</v>
+      </c>
+      <c r="K22">
+        <f>IF(K$6="","",K$6+(K$8*K21)/$C23)</f>
+        <v>0.62201353284418326</v>
+      </c>
+      <c r="L22">
+        <f>IF(L$6="","",L$6+(L$8*L21)/$C23)</f>
+        <v>0.25000029776894456</v>
+      </c>
+      <c r="M22" t="str">
+        <f>IF(M$6="","",((1-$C23)*M$6)+($C23*M$8*M21))</f>
         <v/>
       </c>
-      <c r="N17">
-        <f t="shared" ref="N17:T17" si="13">IF(N$5="","",N$5+(N$6*N16)/$C18)</f>
+      <c r="N22">
+        <f>IF(N$6="","",N$6+(N$8*N21)/$C23)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="13"/>
+      <c r="O22">
+        <f>IF(O$6="","",O$6+(O$8*O21)/$C23)</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="13"/>
-        <v>0.22700477188170018</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="13"/>
-        <v>0.22401563441113459</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="13"/>
-        <v>0.30400341729654529</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="13"/>
-        <v>0.56201784605131622</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="13"/>
-        <v>0.33200052712535916</v>
-      </c>
-      <c r="U17" t="str">
-        <f>IF(U$5="","",((1-$C18)*U$5)+($C18*U$6*U16))</f>
+      <c r="P22">
+        <f>IF(P$6="","",P$6+(P$8*P21)/$C23)</f>
+        <v>0.22700397750492252</v>
+      </c>
+      <c r="Q22">
+        <f>IF(Q$6="","",Q$6+(Q$8*Q21)/$C23)</f>
+        <v>0.22401303174536918</v>
+      </c>
+      <c r="R22">
+        <f>IF(R$6="","",R$6+(R$8*R21)/$C23)</f>
+        <v>0.30400284841802133</v>
+      </c>
+      <c r="S22">
+        <f>IF(S$6="","",S$6+(S$8*S21)/$C23)</f>
+        <v>0.56201487521305393</v>
+      </c>
+      <c r="T22">
+        <f>IF(T$6="","",T$6+(T$8*T21)/$C23)</f>
+        <v>0.33200043937462048</v>
+      </c>
+      <c r="U22" t="str">
+        <f>IF(U$6="","",((1-$C23)*U$6)+($C23*U$8*U21))</f>
         <v/>
       </c>
-      <c r="V17">
-        <f>IF(V$5="","",((1-$C18)*V$5)+($C18*V$6*V16))</f>
-        <v>-5825.5686436718124</v>
-      </c>
-      <c r="W17" t="str">
-        <f>IF(W$5="","",((1-$C18)*W$5)+($C18*W$6*W16))</f>
+      <c r="V22" t="str">
+        <f>IF(V$6="","",((1-$C23)*V$6)+($C23*V$8*V21))</f>
         <v/>
       </c>
-      <c r="X17">
-        <f t="shared" ref="X17:AC17" si="14">IF(X$5="","",X$5+(X$6*X16)/$C18)</f>
+      <c r="W22" t="str">
+        <f>IF(W$6="","",((1-$C23)*W$6)+($C23*W$8*W21))</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>IF(X$6="","",X$6+(X$8*X21)/$C23)</f>
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="Y17">
-        <f t="shared" si="14"/>
-        <v>0.15131168445123841</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="14"/>
-        <v>0.30320302318460207</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="14"/>
-        <v>0.37101376013118281</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="14"/>
-        <v>0.35901700862059499</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="14"/>
-        <v>0.15900030293830883</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
-      <c r="A18" s="8" cm="1">
-        <f t="array" ref="A18">MAX(ABS(F18:AC18))</f>
-        <v>1.0000000189402947</v>
-      </c>
-      <c r="B18" s="4">
-        <f>C18*A18</f>
-        <v>15745.780416261641</v>
-      </c>
-      <c r="C18" s="5">
-        <v>15745.780118031926</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="Y22">
+        <f>IF(Y$6="","",Y$6+(Y$8*Y21)/$C23)</f>
+        <v>0.15131460900497054</v>
+      </c>
+      <c r="Z22">
+        <f>IF(Z$6="","",Z$6+(Z$8*Z21)/$C23)</f>
+        <v>0.30320377987104208</v>
+      </c>
+      <c r="AA22">
+        <f>IF(AA$6="","",AA$6+(AA$8*AA21)/$C23)</f>
+        <v>0.37101720421616241</v>
+      </c>
+      <c r="AB22">
+        <f>IF(AB$6="","",AB$6+(AB$8*AB21)/$C23)</f>
+        <v>0.35902126578456656</v>
+      </c>
+      <c r="AC22">
+        <f>IF(AC$6="","",AC$6+(AC$8*AC21)/$C23)</f>
+        <v>0.15900037876209752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="8" cm="1">
+        <f t="array" ref="A23">MAX(ABS(F23:AC23))</f>
+        <v>1.0000032372747825</v>
+      </c>
+      <c r="B23" s="4">
+        <f>C23*A23</f>
+        <v>37781.093777574977</v>
+      </c>
+      <c r="C23" s="5">
+        <v>37780.971470188779</v>
+      </c>
+      <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="G18">
-        <f t="shared" ref="G18:L18" si="15">(((G17/$I17)/(G$5/$I$5))*(($K17/$I17)/($K$5/$I$5))^(G$3*-1)-1)*10000</f>
-        <v>-1.0000000189402947</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="15"/>
-        <v>-0.44082165921333072</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="15"/>
-        <v>-0.23645561253893277</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="15"/>
-        <v>-0.25872309084018497</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ref="O18:T18" si="16">(((O17/$R17)/(O$5/$R$5))*(($P17/$R17)/($P$5/$R$5))^(O$3*-1)-1)*10000</f>
-        <v>-0.25989572330020749</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="16"/>
-        <v>0.53681251196868729</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="16"/>
-        <v>0.25325933787012644</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="16"/>
-        <v>4.6613433932751747E-2</v>
-      </c>
-      <c r="X18">
-        <f t="shared" ref="X18:AC18" si="17">(((X17/$Z17)/(X$5/$Z$5))*(($AB17/$Z17)/($AB$5/$Z$5))^(X$3*-1)-1)*10000</f>
-        <v>0.28528512164838205</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="17"/>
-        <v>0.79981440876286669</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="17"/>
-        <v>0.14546825545913578</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="17"/>
-        <v>-0.69857992528121748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G23">
+        <f t="shared" ref="G23:L23" si="18">(((G22/$I22)/(G$6/$I$6))*(($K22/$I22)/($K$6/$I$6))^(G$4*-1)-1)*10000</f>
+        <v>-0.41678784819421111</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="18"/>
+        <v>-0.1837278909810891</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="18"/>
+        <v>-9.8550241330874755E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="18"/>
+        <v>-0.10782713895540752</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:T23" si="19">(((O22/$R22)/(O$6/$R$6))*(($P22/$R22)/($P$6/$R$6))^(O$4*-1)-1)*10000</f>
+        <v>-0.21663167982355347</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="19"/>
+        <v>0.44745033332072026</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="19"/>
+        <v>0.21109944396302538</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="19"/>
+        <v>3.8853899071433773E-2</v>
+      </c>
+      <c r="X23">
+        <f t="shared" ref="X23:AC23" si="20">(((X22/$Z22)/(X$6/$Z$6))*(($AB22/$Z22)/($AB$6/$Z$6))^(X$4*-1)-1)*10000</f>
+        <v>0.35668838930469349</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="20"/>
+        <v>1.0000032372747825</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="20"/>
+        <v>0.18187762020671627</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="20"/>
+        <v>-0.87341729915646482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <f>F20</f>
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ref="H20:L20" si="18">G20</f>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>F25</f>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:L25" si="21">G25</f>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="6">
         <v>2</v>
       </c>
-      <c r="O20">
-        <f>N20</f>
+      <c r="O25">
+        <f>N25</f>
         <v>2</v>
       </c>
-      <c r="P20">
-        <f t="shared" ref="P20:T20" si="19">O20</f>
+      <c r="P25">
+        <f t="shared" ref="P25:T25" si="22">O25</f>
         <v>2</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="19"/>
+      <c r="Q25">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="19"/>
+      <c r="R25">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="19"/>
+      <c r="S25">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="T20">
-        <f t="shared" si="19"/>
+      <c r="T25">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X25" s="6">
         <v>3</v>
       </c>
-      <c r="Y20">
-        <f>X20</f>
+      <c r="Y25">
+        <f>X25</f>
         <v>3</v>
       </c>
-      <c r="Z20">
-        <f t="shared" ref="Z20:AC20" si="20">Y20</f>
+      <c r="Z25">
+        <f t="shared" ref="Z25:AC25" si="23">Y25</f>
         <v>3</v>
       </c>
-      <c r="AA20">
-        <f t="shared" si="20"/>
+      <c r="AA25">
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="AB20">
-        <f t="shared" si="20"/>
+      <c r="AB25">
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="AC20">
-        <f t="shared" si="20"/>
+      <c r="AC25">
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
-      <c r="A21" s="1" t="s">
+    <row r="26" spans="1:29">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="F21">
-        <f t="shared" ref="F21:L21" si="21">IF(F$5="","",F$5+(F$6*F20)/$C22)</f>
+      <c r="F26">
+        <f>IF(F$6="","",F$6+(F$9*F25)/$C27)</f>
         <v>0.37</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="21"/>
-        <v>0.23300005550413128</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="21"/>
-        <v>0.40400744247670345</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="21"/>
-        <v>0.42501348760977209</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="21"/>
-        <v>0.24500413078314101</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="21"/>
-        <v>0.62201353284418326</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="21"/>
-        <v>0.25000029776894456</v>
-      </c>
-      <c r="M21" t="str">
-        <f>IF(M$5="","",((1-$C22)*M$5)+($C22*M$6*M20))</f>
+      <c r="G26">
+        <f>IF(G$6="","",G$6+(G$9*G25)/$C27)</f>
+        <v>0.23300002719007823</v>
+      </c>
+      <c r="H26">
+        <f>IF(H$6="","",H$6+(H$9*H25)/$C27)</f>
+        <v>0.40400364588218984</v>
+      </c>
+      <c r="I26">
+        <f>IF(I$6="","",I$6+(I$9*I25)/$C27)</f>
+        <v>0.42500660724087025</v>
+      </c>
+      <c r="J26">
+        <f>IF(J$6="","",J$6+(J$9*J25)/$C27)</f>
+        <v>0.24500202356678882</v>
+      </c>
+      <c r="K26">
+        <f>IF(K$6="","",K$6+(K$9*K25)/$C27)</f>
+        <v>0.6220066294000709</v>
+      </c>
+      <c r="L26">
+        <f>IF(L$6="","",L$6+(L$9*L25)/$C27)</f>
+        <v>0.2500001458695183</v>
+      </c>
+      <c r="M26" t="str">
+        <f>IF(M$6="","",((1-$C27)*M$6)+($C27*M$9*M25))</f>
         <v/>
       </c>
-      <c r="N21">
-        <f t="shared" ref="N21:T21" si="22">IF(N$5="","",N$5+(N$6*N20)/$C22)</f>
+      <c r="N26">
+        <f>IF(N$6="","",N$6+(N$9*N25)/$C27)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="22"/>
+      <c r="O26">
+        <f>IF(O$6="","",O$6+(O$9*O25)/$C27)</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="22"/>
-        <v>0.22700397750492252</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="22"/>
-        <v>0.22401303174536918</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="22"/>
-        <v>0.30400284841802133</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="22"/>
-        <v>0.56201487521305393</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="22"/>
-        <v>0.33200043937462048</v>
-      </c>
-      <c r="U21" t="str">
-        <f>IF(U$5="","",((1-$C22)*U$5)+($C22*U$6*U20))</f>
+      <c r="P26">
+        <f>IF(P$6="","",P$6+(P$9*P25)/$C27)</f>
+        <v>0.22700431518587524</v>
+      </c>
+      <c r="Q26">
+        <f>IF(Q$6="","",Q$6+(Q$9*Q25)/$C27)</f>
+        <v>0.2240141381103587</v>
+      </c>
+      <c r="R26">
+        <f>IF(R$6="","",R$6+(R$9*R25)/$C27)</f>
+        <v>0.30400309024211208</v>
+      </c>
+      <c r="S26">
+        <f>IF(S$6="","",S$6+(S$9*S25)/$C27)</f>
+        <v>0.56201613808417883</v>
+      </c>
+      <c r="T26">
+        <f>IF(T$6="","",T$6+(T$9*T25)/$C27)</f>
+        <v>0.33200047667650778</v>
+      </c>
+      <c r="U26" t="str">
+        <f>IF(U$6="","",((1-$C27)*U$6)+($C27*U$9*U25))</f>
         <v/>
       </c>
-      <c r="V21">
-        <f>IF(V$5="","",((1-$C22)*V$5)+($C22*V$6*V20))</f>
-        <v>-13978.589443969848</v>
-      </c>
-      <c r="W21" t="str">
-        <f>IF(W$5="","",((1-$C22)*W$5)+($C22*W$6*W20))</f>
+      <c r="V26" t="str">
+        <f>IF(V$6="","",((1-$C27)*V$6)+($C27*V$9*V25))</f>
         <v/>
       </c>
-      <c r="X21">
-        <f t="shared" ref="X21:AC21" si="23">IF(X$5="","",X$5+(X$6*X20)/$C22)</f>
+      <c r="W26" t="str">
+        <f>IF(W$6="","",((1-$C27)*W$6)+($C27*W$9*W25))</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>IF(X$6="","",X$6+(X$9*X25)/$C27)</f>
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="Y21">
-        <f t="shared" si="23"/>
-        <v>0.15131460900497054</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="23"/>
-        <v>0.30320377987104208</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="23"/>
-        <v>0.37101720421616241</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="23"/>
-        <v>0.35902126578456656</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="23"/>
-        <v>0.15900037876209752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="A22" s="8" cm="1">
-        <f t="array" ref="A22">MAX(ABS(F22:AC22))</f>
-        <v>1.0000032372747825</v>
-      </c>
-      <c r="B22" s="4">
-        <f>C22*A22</f>
-        <v>37781.093777574977</v>
-      </c>
-      <c r="C22" s="5">
-        <v>37780.971470188779</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="Y26">
+        <f>IF(Y$6="","",Y$6+(Y$9*Y25)/$C27)</f>
+        <v>0.15131460895640195</v>
+      </c>
+      <c r="Z26">
+        <f>IF(Z$6="","",Z$6+(Z$9*Z25)/$C27)</f>
+        <v>0.30320377985847563</v>
+      </c>
+      <c r="AA26">
+        <f>IF(AA$6="","",AA$6+(AA$9*AA25)/$C27)</f>
+        <v>0.37101720415896589</v>
+      </c>
+      <c r="AB26">
+        <f>IF(AB$6="","",AB$6+(AB$9*AB25)/$C27)</f>
+        <v>0.35902126571386705</v>
+      </c>
+      <c r="AC26">
+        <f>IF(AC$6="","",AC$6+(AC$9*AC25)/$C27)</f>
+        <v>0.15900037876083828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="8" cm="1">
+        <f t="array" ref="A27">MAX(ABS(F27:AC27))</f>
+        <v>0.99999991270527389</v>
+      </c>
+      <c r="B27" s="4">
+        <f>C27*A27</f>
+        <v>52413.233192191168</v>
+      </c>
+      <c r="C27" s="5">
+        <v>52413.237767590406</v>
+      </c>
+      <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="G22">
-        <f t="shared" ref="G22:L22" si="24">(((G21/$I21)/(G$5/$I$5))*(($K21/$I21)/($K$5/$I$5))^(G$3*-1)-1)*10000</f>
-        <v>-0.41678784819421111</v>
-      </c>
-      <c r="H22">
+      <c r="G27">
+        <f t="shared" ref="G27:L27" si="24">(((G26/$I26)/(G$6/$I$6))*(($K26/$I26)/($K$6/$I$6))^(G$4*-1)-1)*10000</f>
+        <v>-0.2041779957706602</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="24"/>
-        <v>-0.1837278909810891</v>
-      </c>
-      <c r="I22">
+        <v>-9.0005268095216806E-2</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="J27">
         <f t="shared" si="24"/>
-        <v>-9.8550241330874755E-2</v>
-      </c>
-      <c r="K22">
+        <v>-4.8277974129540269E-2</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="L27">
         <f t="shared" si="24"/>
-        <v>-0.10782713895540752</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ref="O22:T22" si="25">(((O21/$R21)/(O$5/$R$5))*(($P21/$R21)/($P$5/$R$5))^(O$3*-1)-1)*10000</f>
-        <v>-0.21663167982355347</v>
-      </c>
-      <c r="P22">
+        <v>-5.2821885063725205E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:T27" si="25">(((O26/$R26)/(O$6/$R$6))*(($P26/$R26)/($P$6/$R$6))^(O$4*-1)-1)*10000</f>
+        <v>-0.23502279874687559</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q22">
+      <c r="Q27">
         <f t="shared" si="25"/>
-        <v>0.44745033332072026</v>
-      </c>
-      <c r="R22">
+        <v>0.48543728405459063</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="S27">
         <f t="shared" si="25"/>
-        <v>0.21109944396302538</v>
-      </c>
-      <c r="T22">
+        <v>0.22902117101875064</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="25"/>
-        <v>3.8853899071433773E-2</v>
-      </c>
-      <c r="X22">
-        <f t="shared" ref="X22:AC22" si="26">(((X21/$Z21)/(X$5/$Z$5))*(($AB21/$Z21)/($AB$5/$Z$5))^(X$3*-1)-1)*10000</f>
-        <v>0.35668838930469349</v>
-      </c>
-      <c r="Y22">
+        <v>4.2152403891826395E-2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" ref="X27:AC27" si="26">(((X26/$Z26)/(X$6/$Z$6))*(($AB26/$Z26)/($AB$6/$Z$6))^(X$4*-1)-1)*10000</f>
+        <v>0.35668720350656713</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="26"/>
-        <v>1.0000032372747825</v>
-      </c>
-      <c r="Z22">
+        <v>0.99999991270527389</v>
+      </c>
+      <c r="Z27">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AA22">
+      <c r="AA27">
         <f t="shared" si="26"/>
-        <v>0.18187762020671627</v>
-      </c>
-      <c r="AB22">
+        <v>0.18187701555261171</v>
+      </c>
+      <c r="AB27">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AC22">
+      <c r="AC27">
         <f t="shared" si="26"/>
-        <v>-0.87341729915646482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
-      <c r="A24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <f>F24</f>
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ref="H24:L24" si="27">G24</f>
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2</v>
-      </c>
-      <c r="O24">
-        <f>N24</f>
-        <v>2</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ref="P24:T24" si="28">O24</f>
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="X24" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y24">
-        <f>X24</f>
-        <v>3</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" ref="Z24:AC24" si="29">Y24</f>
-        <v>3</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
-      <c r="A25" s="1" t="s">
+        <v>-0.87341439565125079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="18">
+      <c r="A30" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ref="F25:L25" si="30">IF(F$5="","",F$5+(F$7*F24)/$C26)</f>
-        <v>0.37</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="30"/>
-        <v>0.23300002719007823</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="30"/>
-        <v>0.40400364588218984</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="30"/>
-        <v>0.42500660724087025</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="30"/>
-        <v>0.24500202356678882</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="30"/>
-        <v>0.6220066294000709</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="30"/>
-        <v>0.2500001458695183</v>
-      </c>
-      <c r="M25" t="str">
-        <f>IF(M$5="","",((1-$C26)*M$5)+($C26*M$7*M24))</f>
-        <v/>
-      </c>
-      <c r="N25">
-        <f t="shared" ref="N25:T25" si="31">IF(N$5="","",N$5+(N$7*N24)/$C26)</f>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="31"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="31"/>
-        <v>0.22700431518587524</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="31"/>
-        <v>0.2240141381103587</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="31"/>
-        <v>0.30400309024211208</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="31"/>
-        <v>0.56201613808417883</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="31"/>
-        <v>0.33200047667650778</v>
-      </c>
-      <c r="U25" t="str">
-        <f>IF(U$5="","",((1-$C26)*U$5)+($C26*U$7*U24))</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>IF(V$5="","",((1-$C26)*V$5)+($C26*V$7*V24))</f>
-        <v>-19392.527974008452</v>
-      </c>
-      <c r="W25" t="str">
-        <f>IF(W$5="","",((1-$C26)*W$5)+($C26*W$7*W24))</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f t="shared" ref="X25:AC25" si="32">IF(X$5="","",X$5+(X$7*X24)/$C26)</f>
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="32"/>
-        <v>0.15131460895640195</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="32"/>
-        <v>0.30320377985847563</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="32"/>
-        <v>0.37101720415896589</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="32"/>
-        <v>0.35902126571386705</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="32"/>
-        <v>0.15900037876083828</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
-      <c r="A26" s="8" cm="1">
-        <f t="array" ref="A26">MAX(ABS(F26:AC26))</f>
-        <v>0.99999991270527389</v>
-      </c>
-      <c r="B26" s="4">
-        <f>C26*A26</f>
-        <v>52413.233192191168</v>
-      </c>
-      <c r="C26" s="5">
-        <v>52413.237767590406</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:L26" si="33">(((G25/$I25)/(G$5/$I$5))*(($K25/$I25)/($K$5/$I$5))^(G$3*-1)-1)*10000</f>
-        <v>-0.2041779957706602</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="33"/>
-        <v>-9.0005268095216806E-2</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="33"/>
-        <v>-4.8277974129540269E-2</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="33"/>
-        <v>-5.2821885063725205E-2</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ref="O26:T26" si="34">(((O25/$R25)/(O$5/$R$5))*(($P25/$R25)/($P$5/$R$5))^(O$3*-1)-1)*10000</f>
-        <v>-0.23502279874687559</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="34"/>
-        <v>0.48543728405459063</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="34"/>
-        <v>0.22902117101875064</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="34"/>
-        <v>4.2152403891826395E-2</v>
-      </c>
-      <c r="X26">
-        <f t="shared" ref="X26:AC26" si="35">(((X25/$Z25)/(X$5/$Z$5))*(($AB25/$Z25)/($AB$5/$Z$5))^(X$3*-1)-1)*10000</f>
-        <v>0.35668720350656713</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="35"/>
-        <v>0.99999991270527389</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="35"/>
-        <v>0.18187701555261171</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="35"/>
-        <v>-0.87341439565125079</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="18">
-      <c r="A29" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
-      <c r="A31" s="8" cm="1">
-        <f t="array" ref="A31">MAX(ABS(F39:L39))</f>
-        <v>1.0000000189391844</v>
-      </c>
-      <c r="B31" s="4">
-        <f>C31*A31</f>
-        <v>15745.780416254815</v>
-      </c>
-      <c r="C31" s="5">
-        <v>15745.780118042581</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <f>F31</f>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ref="H31:L31" si="36">G31</f>
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="36"/>
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="8" cm="1">
         <f t="array" ref="A32">MAX(ABS(F40:L40))</f>
-        <v>1.0000000189402947</v>
+        <v>1.0000000189391844</v>
       </c>
       <c r="B32" s="4">
         <f>C32*A32</f>
-        <v>157.45780416258566</v>
+        <v>15745.780416254815</v>
       </c>
       <c r="C32" s="5">
-        <v>157.4578011802885</v>
-      </c>
-      <c r="F32">
-        <v>0.01</v>
+        <v>15745.780118042581</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.01</v>
+        <f>F32</f>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0.02</v>
+        <f t="shared" ref="H32:L32" si="27">G32</f>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0.01</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0.01</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0.01</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0.01</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" cm="1">
         <f t="array" ref="A33">MAX(ABS(F41:L41))</f>
-        <v>1.0000000189380742</v>
+        <v>1.0000000189402947</v>
       </c>
       <c r="B33" s="4">
         <f>C33*A33</f>
-        <v>1574.5780416287375</v>
+        <v>157.45780416258566</v>
       </c>
       <c r="C33" s="5">
-        <v>1574.5780118092623</v>
+        <v>157.4578011802885</v>
       </c>
       <c r="F33">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G33">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H33">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="I33">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J33">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="K33">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L33">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" cm="1">
         <f t="array" ref="A34">MAX(ABS(F42:L42))</f>
-        <v>1.0000000139431808</v>
+        <v>1.0000000189380742</v>
       </c>
       <c r="B34" s="4">
         <f>C34*A34</f>
+        <v>1574.5780416287375</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1574.5780118092623</v>
+      </c>
+      <c r="F34">
+        <v>0.1</v>
+      </c>
+      <c r="G34">
+        <v>0.1</v>
+      </c>
+      <c r="H34">
+        <v>0.3</v>
+      </c>
+      <c r="I34">
+        <v>0.1</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>0.1</v>
+      </c>
+      <c r="L34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="8" cm="1">
+        <f t="array" ref="A35">MAX(ABS(F43:L43))</f>
+        <v>1.0000000139431808</v>
+      </c>
+      <c r="B35" s="4">
+        <f>C35*A35</f>
         <v>7872.8902081350971</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C35" s="5">
         <v>7872.8900983619669</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>0.5</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>0.5</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>2</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>0.5</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>0.5</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>0.5</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="E35" t="s">
+    <row r="36" spans="1:12">
+      <c r="E36" t="s">
         <v>28</v>
       </c>
-      <c r="F35">
-        <f t="shared" ref="F35:L38" si="37">IF(F$5="","",F$5+(F$6*F31)/$C31)</f>
+      <c r="F36">
+        <f>IF(F$6="","",F$6+(F$8*F32)/$C32)</f>
         <v>0.37</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="37"/>
+      <c r="G36">
+        <f>IF(G$6="","",G$6+(G$8*G32)/$C32)</f>
         <v>0.23300013317853954</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="37"/>
+      <c r="H36">
+        <f>IF(H$6="","",H$6+(H$8*H32)/$C32)</f>
         <v>0.40401785773698684</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="37"/>
+      <c r="I36">
+        <f>IF(I$6="","",I$6+(I$8*I32)/$C32)</f>
         <v>0.4250323626391439</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="37"/>
+      <c r="J36">
+        <f>IF(J$6="","",J$6+(J$8*J32)/$C32)</f>
         <v>0.24500991154447921</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="37"/>
+      <c r="K36">
+        <f>IF(K$6="","",K$6+(K$8*K32)/$C32)</f>
         <v>0.62203247117616067</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="37"/>
-        <v>0.25000071447714345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="F36">
-        <f t="shared" si="37"/>
-        <v>0.37</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="37"/>
-        <v>0.23300013317853954</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="37"/>
-        <v>0.40403571547397366</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="37"/>
-        <v>0.42503236263914396</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="37"/>
-        <v>0.24500991154447924</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="37"/>
-        <v>0.62203247117616067</v>
-      </c>
       <c r="L36">
-        <f t="shared" si="37"/>
+        <f>IF(L$6="","",L$6+(L$8*L32)/$C32)</f>
         <v>0.25000071447714345</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="F37">
-        <f t="shared" si="37"/>
+        <f>IF(F$6="","",F$6+(F$8*F33)/$C33)</f>
         <v>0.37</v>
       </c>
       <c r="G37">
-        <f t="shared" si="37"/>
+        <f>IF(G$6="","",G$6+(G$8*G33)/$C33)</f>
         <v>0.23300013317853954</v>
       </c>
       <c r="H37">
-        <f t="shared" si="37"/>
-        <v>0.40405357321096025</v>
+        <f>IF(H$6="","",H$6+(H$8*H33)/$C33)</f>
+        <v>0.40403571547397366</v>
       </c>
       <c r="I37">
-        <f t="shared" si="37"/>
-        <v>0.42503236263914385</v>
+        <f>IF(I$6="","",I$6+(I$8*I33)/$C33)</f>
+        <v>0.42503236263914396</v>
       </c>
       <c r="J37">
-        <f t="shared" si="37"/>
-        <v>0.24500991154447918</v>
+        <f>IF(J$6="","",J$6+(J$8*J33)/$C33)</f>
+        <v>0.24500991154447924</v>
       </c>
       <c r="K37">
-        <f t="shared" si="37"/>
-        <v>0.62203247117616056</v>
+        <f>IF(K$6="","",K$6+(K$8*K33)/$C33)</f>
+        <v>0.62203247117616067</v>
       </c>
       <c r="L37">
-        <f t="shared" si="37"/>
+        <f>IF(L$6="","",L$6+(L$8*L33)/$C33)</f>
         <v>0.25000071447714345</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="F38">
-        <f t="shared" si="37"/>
+        <f>IF(F$6="","",F$6+(F$8*F34)/$C34)</f>
         <v>0.37</v>
       </c>
       <c r="G38">
-        <f t="shared" si="37"/>
+        <f>IF(G$6="","",G$6+(G$8*G34)/$C34)</f>
+        <v>0.23300013317853954</v>
+      </c>
+      <c r="H38">
+        <f>IF(H$6="","",H$6+(H$8*H34)/$C34)</f>
+        <v>0.40405357321096025</v>
+      </c>
+      <c r="I38">
+        <f>IF(I$6="","",I$6+(I$8*I34)/$C34)</f>
+        <v>0.42503236263914385</v>
+      </c>
+      <c r="J38">
+        <f>IF(J$6="","",J$6+(J$8*J34)/$C34)</f>
+        <v>0.24500991154447918</v>
+      </c>
+      <c r="K38">
+        <f>IF(K$6="","",K$6+(K$8*K34)/$C34)</f>
+        <v>0.62203247117616056</v>
+      </c>
+      <c r="L38">
+        <f>IF(L$6="","",L$6+(L$8*L34)/$C34)</f>
+        <v>0.25000071447714345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="F39">
+        <f>IF(F$6="","",F$6+(F$8*F35)/$C35)</f>
+        <v>0.37</v>
+      </c>
+      <c r="G39">
+        <f>IF(G$6="","",G$6+(G$8*G35)/$C35)</f>
         <v>0.23300013317853888</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="37"/>
+      <c r="H39">
+        <f>IF(H$6="","",H$6+(H$8*H35)/$C35)</f>
         <v>0.40407143094759029</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="37"/>
+      <c r="I39">
+        <f>IF(I$6="","",I$6+(I$8*I35)/$C35)</f>
         <v>0.4250323626389822</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="37"/>
+      <c r="J39">
+        <f>IF(J$6="","",J$6+(J$8*J35)/$C35)</f>
         <v>0.24500991154442969</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="37"/>
+      <c r="K39">
+        <f>IF(K$6="","",K$6+(K$8*K35)/$C35)</f>
         <v>0.62203247117599836</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="37"/>
+      <c r="L39">
+        <f>IF(L$6="","",L$6+(L$8*L35)/$C35)</f>
         <v>0.2500007144771399</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="E39" t="s">
+    <row r="40" spans="1:12">
+      <c r="E40" t="s">
         <v>29</v>
       </c>
-      <c r="G39">
-        <f t="shared" ref="G39:L42" si="38">(((G35/$I35)/(G$5/$I$5))*(($K35/$I35)/($K$5/$I$5))^(G$3*-1)-1)*10000</f>
+      <c r="G40">
+        <f t="shared" ref="G40:L43" si="28">(((G36/$I36)/(G$6/$I$6))*(($K36/$I36)/($K$6/$I$6))^(G$4*-1)-1)*10000</f>
         <v>-1.0000000189391844</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="38"/>
+      <c r="H40">
+        <f t="shared" si="28"/>
         <v>-0.44082165921111027</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="38"/>
+      <c r="I40">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="28"/>
         <v>-0.23645561253893277</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="38"/>
+      <c r="K40">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="28"/>
         <v>-0.25872309084129519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="G40">
-        <f t="shared" si="38"/>
-        <v>-1.0000000189402947</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="38"/>
-        <v>1.1625114648694534E-3</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="38"/>
-        <v>-0.23645561253671232</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="38"/>
-        <v>-0.25872309084018497</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="G41">
-        <f t="shared" si="38"/>
-        <v>-1.0000000189380742</v>
+        <f t="shared" si="28"/>
+        <v>-1.0000000189402947</v>
       </c>
       <c r="H41">
-        <f t="shared" si="38"/>
-        <v>0.44314668214084918</v>
+        <f t="shared" si="28"/>
+        <v>1.1625114648694534E-3</v>
       </c>
       <c r="I41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="38"/>
-        <v>-0.23645561253893277</v>
+        <f t="shared" si="28"/>
+        <v>-0.23645561253671232</v>
       </c>
       <c r="K41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="38"/>
-        <v>-0.25872309084129519</v>
+        <f t="shared" si="28"/>
+        <v>-0.25872309084018497</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="G42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="28"/>
+        <v>-1.0000000189380742</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="28"/>
+        <v>0.44314668214084918</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="28"/>
+        <v>-0.23645561253893277</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="28"/>
+        <v>-0.25872309084129519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="G43">
+        <f t="shared" si="28"/>
         <v>-1.0000000139431808</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="38"/>
+      <c r="H43">
+        <f t="shared" si="28"/>
         <v>0.88513084839814127</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="38"/>
+      <c r="I43">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="28"/>
         <v>-0.23645561135765547</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="38"/>
+      <c r="K43">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="28"/>
         <v>-0.25872308954677514</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="7" t="s">
+    <row r="46" spans="1:12">
+      <c r="A46" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="8" cm="1">
-        <f t="array" ref="A47">MAX(ABS(F55:L55))</f>
-        <v>0.99999999999766942</v>
-      </c>
-      <c r="B47" s="4">
-        <f>C47*A47</f>
-        <v>15745.780416288477</v>
-      </c>
-      <c r="C47" s="5">
-        <v>15745.780416325173</v>
-      </c>
-      <c r="E47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <f>F47</f>
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <f t="shared" ref="H47:L47" si="39">G47</f>
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="39"/>
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="8" cm="1">
         <f t="array" ref="A48">MAX(ABS(F56:L56))</f>
-        <v>0.99999999193300937</v>
+        <v>0.99999999999766942</v>
       </c>
       <c r="B48" s="4">
         <f>C48*A48</f>
-        <v>1.5745780416310022E-2</v>
+        <v>15745.780416288477</v>
       </c>
       <c r="C48" s="5">
-        <v>1.5745780543331086E-2</v>
-      </c>
-      <c r="F48">
-        <v>9.9999999999999995E-7</v>
+        <v>15745.780416325173</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>9.9999999999999995E-7</v>
+        <f>F48</f>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1.9999999999999999E-6</v>
+        <f t="shared" ref="H48:L48" si="29">G48</f>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="8" cm="1">
         <f t="array" ref="A49">MAX(ABS(F57:L57))</f>
-        <v>0.99999999193745026</v>
+        <v>0.99999999193300937</v>
       </c>
       <c r="B49" s="4">
         <f>C49*A49</f>
-        <v>1.574578041631013E-3</v>
+        <v>1.5745780416310022E-2</v>
       </c>
       <c r="C49" s="5">
-        <v>1.5745780543261268E-3</v>
+        <v>1.5745780543331086E-2</v>
       </c>
       <c r="F49">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G49">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="H49">
-        <v>2.9999999999999999E-7</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="I49">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J49">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K49">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="L49">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="8" cm="1">
         <f t="array" ref="A50">MAX(ABS(F58:L58))</f>
-        <v>0.99999999122024619</v>
+        <v>0.99999999193745026</v>
       </c>
       <c r="B50" s="4">
         <f>C50*A50</f>
+        <v>1.574578041631013E-3</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1.5745780543261268E-3</v>
+      </c>
+      <c r="F50">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G50">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H50">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="I50">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J50">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K50">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="L50">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="8" cm="1">
+        <f t="array" ref="A51">MAX(ABS(F59:L59))</f>
+        <v>0.99999999122024619</v>
+      </c>
+      <c r="B51" s="4">
+        <f>C51*A51</f>
         <v>1.5745780416337938</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C51" s="5">
         <v>1.5745780554582014</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>1E-4</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>1E-4</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I50">
+      <c r="I51">
         <v>1E-4</v>
       </c>
-      <c r="J50">
+      <c r="J51">
         <v>1E-4</v>
       </c>
-      <c r="K50">
+      <c r="K51">
         <v>1E-4</v>
       </c>
-      <c r="L50">
+      <c r="L51">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="E51" t="s">
+    <row r="52" spans="1:12">
+      <c r="E52" t="s">
         <v>28</v>
       </c>
-      <c r="F51">
-        <f t="shared" ref="F51:L54" si="40">IF(F$5="","",F$5+(F$6*F47)/$C47)</f>
+      <c r="F52">
+        <f>IF(F$6="","",F$6+(F$8*F48)/$C48)</f>
         <v>0.37</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="40"/>
+      <c r="G52">
+        <f>IF(G$6="","",G$6+(G$8*G48)/$C48)</f>
         <v>0.23300013317853702</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="40"/>
+      <c r="H52">
+        <f>IF(H$6="","",H$6+(H$8*H48)/$C48)</f>
         <v>0.40401785773664856</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="40"/>
+      <c r="I52">
+        <f>IF(I$6="","",I$6+(I$8*I48)/$C48)</f>
         <v>0.42503236263853084</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="40"/>
+      <c r="J52">
+        <f>IF(J$6="","",J$6+(J$8*J48)/$C48)</f>
         <v>0.24500991154429144</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="40"/>
+      <c r="K52">
+        <f>IF(K$6="","",K$6+(K$8*K48)/$C48)</f>
         <v>0.6220324711755455</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="40"/>
+      <c r="L52">
+        <f>IF(L$6="","",L$6+(L$8*L48)/$C48)</f>
         <v>0.2500007144771299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="F52">
-        <f t="shared" si="40"/>
-        <v>0.37</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="40"/>
-        <v>0.23300013317853596</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="40"/>
-        <v>0.40403571547300898</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="40"/>
-        <v>0.42503236263826982</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="40"/>
-        <v>0.24500991154421151</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="40"/>
-        <v>0.6220324711752836</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="40"/>
-        <v>0.25000071447712413</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="F53">
-        <f t="shared" si="40"/>
+        <f>IF(F$6="","",F$6+(F$8*F49)/$C49)</f>
         <v>0.37</v>
       </c>
       <c r="G53">
-        <f t="shared" si="40"/>
+        <f>IF(G$6="","",G$6+(G$8*G49)/$C49)</f>
         <v>0.23300013317853596</v>
       </c>
       <c r="H53">
-        <f t="shared" si="40"/>
-        <v>0.40405357320951368</v>
+        <f>IF(H$6="","",H$6+(H$8*H49)/$C49)</f>
+        <v>0.40403571547300898</v>
       </c>
       <c r="I53">
-        <f t="shared" si="40"/>
-        <v>0.42503236263826999</v>
+        <f>IF(I$6="","",I$6+(I$8*I49)/$C49)</f>
+        <v>0.42503236263826982</v>
       </c>
       <c r="J53">
-        <f t="shared" si="40"/>
-        <v>0.24500991154421156</v>
+        <f>IF(J$6="","",J$6+(J$8*J49)/$C49)</f>
+        <v>0.24500991154421151</v>
       </c>
       <c r="K53">
-        <f t="shared" si="40"/>
-        <v>0.62203247117528382</v>
+        <f>IF(K$6="","",K$6+(K$8*K49)/$C49)</f>
+        <v>0.6220324711752836</v>
       </c>
       <c r="L53">
-        <f t="shared" si="40"/>
+        <f>IF(L$6="","",L$6+(L$8*L49)/$C49)</f>
         <v>0.25000071447712413</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="F54">
-        <f t="shared" si="40"/>
+        <f>IF(F$6="","",F$6+(F$8*F50)/$C50)</f>
         <v>0.37</v>
       </c>
       <c r="G54">
-        <f t="shared" si="40"/>
+        <f>IF(G$6="","",G$6+(G$8*G50)/$C50)</f>
+        <v>0.23300013317853596</v>
+      </c>
+      <c r="H54">
+        <f>IF(H$6="","",H$6+(H$8*H50)/$C50)</f>
+        <v>0.40405357320951368</v>
+      </c>
+      <c r="I54">
+        <f>IF(I$6="","",I$6+(I$8*I50)/$C50)</f>
+        <v>0.42503236263826999</v>
+      </c>
+      <c r="J54">
+        <f>IF(J$6="","",J$6+(J$8*J50)/$C50)</f>
+        <v>0.24500991154421156</v>
+      </c>
+      <c r="K54">
+        <f>IF(K$6="","",K$6+(K$8*K50)/$C50)</f>
+        <v>0.62203247117528382</v>
+      </c>
+      <c r="L54">
+        <f>IF(L$6="","",L$6+(L$8*L50)/$C50)</f>
+        <v>0.25000071447712413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="F55">
+        <f>IF(F$6="","",F$6+(F$8*F51)/$C51)</f>
+        <v>0.37</v>
+      </c>
+      <c r="G55">
+        <f>IF(G$6="","",G$6+(G$8*G51)/$C51)</f>
         <v>0.23300013317853585</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="40"/>
+      <c r="H55">
+        <f>IF(H$6="","",H$6+(H$8*H51)/$C51)</f>
         <v>0.40407143094596687</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="40"/>
+      <c r="I55">
+        <f>IF(I$6="","",I$6+(I$8*I51)/$C51)</f>
         <v>0.42503236263824667</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="40"/>
+      <c r="J55">
+        <f>IF(J$6="","",J$6+(J$8*J51)/$C51)</f>
         <v>0.24500991154420443</v>
       </c>
-      <c r="K54">
-        <f t="shared" si="40"/>
+      <c r="K55">
+        <f>IF(K$6="","",K$6+(K$8*K51)/$C51)</f>
         <v>0.62203247117526039</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="40"/>
+      <c r="L55">
+        <f>IF(L$6="","",L$6+(L$8*L51)/$C51)</f>
         <v>0.25000071447712363</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="E55" t="s">
+    <row r="56" spans="1:12">
+      <c r="E56" t="s">
         <v>29</v>
       </c>
-      <c r="G55">
-        <f t="shared" ref="G55:L58" si="41">(((G51/$I51)/(G$5/$I$5))*(($K51/$I51)/($K$5/$I$5))^(G$3*-1)-1)*10000</f>
+      <c r="G56">
+        <f t="shared" ref="G56:L59" si="30">(((G52/$I52)/(G$6/$I$6))*(($K52/$I52)/($K$6/$I$6))^(G$4*-1)-1)*10000</f>
         <v>-0.99999999999766942</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="41"/>
+      <c r="H56">
+        <f t="shared" si="30"/>
         <v>-0.44082165086001268</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="41"/>
+      <c r="I56">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="30"/>
         <v>-0.23645560806140331</v>
       </c>
-      <c r="K55">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="41"/>
+      <c r="K56">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="30"/>
         <v>-0.25872308594188098</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="G56">
-        <f t="shared" si="41"/>
-        <v>-0.99999999193300937</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="41"/>
-        <v>1.1625114360036548E-3</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="41"/>
-        <v>-0.23645560615404015</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="41"/>
-        <v>-0.25872308385244125</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="G57">
-        <f t="shared" si="41"/>
-        <v>-0.99999999193745026</v>
+        <f t="shared" si="30"/>
+        <v>-0.99999999193300937</v>
       </c>
       <c r="H57">
-        <f t="shared" si="41"/>
-        <v>0.44314667017708587</v>
+        <f t="shared" si="30"/>
+        <v>1.1625114360036548E-3</v>
       </c>
       <c r="I57">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J57">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>-0.23645560615404015</v>
       </c>
       <c r="K57">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="41"/>
-        <v>-0.25872308385688214</v>
+        <f t="shared" si="30"/>
+        <v>-0.25872308385244125</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="G58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
+        <v>-0.99999999193745026</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="30"/>
+        <v>0.44314667017708587</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="30"/>
+        <v>-0.23645560615404015</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="30"/>
+        <v>-0.25872308385688214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="G59">
+        <f t="shared" si="30"/>
         <v>-0.99999999122024619</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="41"/>
+      <c r="H59">
+        <f t="shared" si="30"/>
         <v>0.88513082828312051</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="41"/>
+      <c r="I59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="30"/>
         <v>-0.23645560598417603</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="41"/>
+      <c r="K59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="30"/>
         <v>-0.25872308366814423</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="7"/>
-    </row>
-    <row r="61" spans="1:12" ht="18">
-      <c r="A61" s="9" t="s">
+    <row r="61" spans="1:12">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" ht="18">
+      <c r="A62" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="8" cm="1">
-        <f t="array" ref="A63">MAX(ABS(F71:L71))*10</f>
-        <v>1.0000000002063913</v>
-      </c>
-      <c r="B63" s="4">
-        <f>C63*A63</f>
-        <v>157471.22031173966</v>
-      </c>
-      <c r="C63" s="4">
-        <v>157471.22027923897</v>
-      </c>
-      <c r="E63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="6">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <f>F63</f>
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <f t="shared" ref="H63:L63" si="42">G63</f>
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="42"/>
-        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="8" cm="1">
         <f t="array" ref="A64">MAX(ABS(F72:L72))*10</f>
-        <v>0.99999999992883559</v>
+        <v>1.0000000002063913</v>
       </c>
       <c r="B64" s="4">
         <f>C64*A64</f>
-        <v>0.1574712203071349</v>
+        <v>157471.22031173966</v>
       </c>
       <c r="C64" s="4">
-        <v>0.15747122031834124</v>
-      </c>
-      <c r="F64">
-        <v>9.9999999999999995E-7</v>
+        <v>157471.22027923897</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>9.9999999999999995E-7</v>
+        <f>F64</f>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>1.9999999999999999E-6</v>
+        <f t="shared" ref="H64:L64" si="31">G64</f>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" s="8" cm="1">
         <f t="array" ref="A65">MAX(ABS(F73:L73))*10</f>
-        <v>0.99999999991773336</v>
+        <v>0.99999999992883559</v>
       </c>
       <c r="B65" s="4">
         <f>C65*A65</f>
-        <v>1.5747122030967522E-2</v>
+        <v>0.1574712203071349</v>
       </c>
       <c r="C65" s="4">
-        <v>1.5747122032262986E-2</v>
+        <v>0.15747122031834124</v>
       </c>
       <c r="F65">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G65">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="H65">
-        <v>2.9999999999999999E-7</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="I65">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J65">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K65">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="L65">
-        <v>9.9999999999999995E-8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" s="8" cm="1">
         <f t="array" ref="A66">MAX(ABS(F74:L74))*10</f>
-        <v>0.99999999990663113</v>
+        <v>0.99999999991773336</v>
       </c>
       <c r="B66" s="4">
         <f>C66*A66</f>
+        <v>1.5747122030967522E-2</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1.5747122032262986E-2</v>
+      </c>
+      <c r="F66">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G66">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H66">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="I66">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J66">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K66">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="L66">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
+      <c r="A67" s="8" cm="1">
+        <f t="array" ref="A67">MAX(ABS(F75:L75))*10</f>
+        <v>0.99999999990663113</v>
+      </c>
+      <c r="B67" s="4">
+        <f>C67*A67</f>
         <v>15.747122031029658</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C67" s="4">
         <v>15.747122032499949</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>1E-4</v>
       </c>
-      <c r="G66">
+      <c r="G67">
         <v>1E-4</v>
       </c>
-      <c r="H66">
+      <c r="H67">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I66">
+      <c r="I67">
         <v>1E-4</v>
       </c>
-      <c r="J66">
+      <c r="J67">
         <v>1E-4</v>
       </c>
-      <c r="K66">
+      <c r="K67">
         <v>1E-4</v>
       </c>
-      <c r="L66">
+      <c r="L67">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="E67" t="s">
+    <row r="68" spans="1:30">
+      <c r="E68" t="s">
         <v>28</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:L70" si="43">IF(F$5="","",F$5+(F$6*F63)/$C63)</f>
+      <c r="F68">
+        <f>IF(F$6="","",F$6+(F$8*F64)/$C64)</f>
         <v>0.37</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="43"/>
+      <c r="G68">
+        <f>IF(G$6="","",G$6+(G$8*G64)/$C64)</f>
         <v>0.23300001331671907</v>
       </c>
-      <c r="H67">
-        <f t="shared" si="43"/>
+      <c r="H68">
+        <f>IF(H$6="","",H$6+(H$8*H64)/$C64)</f>
         <v>0.40400178562152184</v>
       </c>
-      <c r="I67">
-        <f t="shared" si="43"/>
+      <c r="I68">
+        <f>IF(I$6="","",I$6+(I$8*I64)/$C64)</f>
         <v>0.42500323598813228</v>
       </c>
-      <c r="J67">
-        <f t="shared" si="43"/>
+      <c r="J68">
+        <f>IF(J$6="","",J$6+(J$8*J64)/$C64)</f>
         <v>0.24500099106998549</v>
       </c>
-      <c r="K67">
-        <f t="shared" si="43"/>
+      <c r="K68">
+        <f>IF(K$6="","",K$6+(K$8*K64)/$C64)</f>
         <v>0.62200324684090902</v>
       </c>
-      <c r="L67">
-        <f t="shared" si="43"/>
+      <c r="L68">
+        <f>IF(L$6="","",L$6+(L$8*L64)/$C64)</f>
         <v>0.25000007144162584</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="F68">
-        <f t="shared" si="43"/>
+    <row r="69" spans="1:30">
+      <c r="F69">
+        <f>IF(F$6="","",F$6+(F$8*F65)/$C65)</f>
         <v>0.37</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="43"/>
+      <c r="G69">
+        <f>IF(G$6="","",G$6+(G$8*G65)/$C65)</f>
         <v>0.23300001331671907</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="43"/>
+      <c r="H69">
+        <f>IF(H$6="","",H$6+(H$8*H65)/$C65)</f>
         <v>0.40400357124304281</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="43"/>
+      <c r="I69">
+        <f>IF(I$6="","",I$6+(I$8*I65)/$C65)</f>
         <v>0.42500323598813144</v>
       </c>
-      <c r="J68">
-        <f t="shared" si="43"/>
+      <c r="J69">
+        <f>IF(J$6="","",J$6+(J$8*J65)/$C65)</f>
         <v>0.24500099106998527</v>
       </c>
-      <c r="K68">
-        <f t="shared" si="43"/>
+      <c r="K69">
+        <f>IF(K$6="","",K$6+(K$8*K65)/$C65)</f>
         <v>0.62200324684090824</v>
       </c>
-      <c r="L68">
-        <f t="shared" si="43"/>
+      <c r="L69">
+        <f>IF(L$6="","",L$6+(L$8*L65)/$C65)</f>
         <v>0.25000007144162584</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="F69">
-        <f t="shared" si="43"/>
+    <row r="70" spans="1:30">
+      <c r="F70">
+        <f>IF(F$6="","",F$6+(F$8*F66)/$C66)</f>
         <v>0.37</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="43"/>
+      <c r="G70">
+        <f>IF(G$6="","",G$6+(G$8*G66)/$C66)</f>
         <v>0.23300001331671907</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="43"/>
+      <c r="H70">
+        <f>IF(H$6="","",H$6+(H$8*H66)/$C66)</f>
         <v>0.40400535686456407</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="43"/>
+      <c r="I70">
+        <f>IF(I$6="","",I$6+(I$8*I66)/$C66)</f>
         <v>0.42500323598813139</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="43"/>
+      <c r="J70">
+        <f>IF(J$6="","",J$6+(J$8*J66)/$C66)</f>
         <v>0.24500099106998524</v>
       </c>
-      <c r="K69">
-        <f t="shared" si="43"/>
+      <c r="K70">
+        <f>IF(K$6="","",K$6+(K$8*K66)/$C66)</f>
         <v>0.62200324684090813</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="43"/>
+      <c r="L70">
+        <f>IF(L$6="","",L$6+(L$8*L66)/$C66)</f>
         <v>0.25000007144162584</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="F70">
-        <f t="shared" si="43"/>
+    <row r="71" spans="1:30">
+      <c r="F71">
+        <f>IF(F$6="","",F$6+(F$8*F67)/$C67)</f>
         <v>0.37</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="43"/>
+      <c r="G71">
+        <f>IF(G$6="","",G$6+(G$8*G67)/$C67)</f>
         <v>0.23300001331671907</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="43"/>
+      <c r="H71">
+        <f>IF(H$6="","",H$6+(H$8*H67)/$C67)</f>
         <v>0.40400714248608527</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="43"/>
+      <c r="I71">
+        <f>IF(I$6="","",I$6+(I$8*I67)/$C67)</f>
         <v>0.42500323598813133</v>
       </c>
-      <c r="J70">
-        <f t="shared" si="43"/>
+      <c r="J71">
+        <f>IF(J$6="","",J$6+(J$8*J67)/$C67)</f>
         <v>0.24500099106998521</v>
       </c>
-      <c r="K70">
-        <f t="shared" si="43"/>
+      <c r="K71">
+        <f>IF(K$6="","",K$6+(K$8*K67)/$C67)</f>
         <v>0.62200324684090813</v>
       </c>
-      <c r="L70">
-        <f t="shared" si="43"/>
+      <c r="L71">
+        <f>IF(L$6="","",L$6+(L$8*L67)/$C67)</f>
         <v>0.25000007144162584</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="E71" t="s">
+    <row r="72" spans="1:30">
+      <c r="E72" t="s">
         <v>29</v>
       </c>
-      <c r="G71">
-        <f t="shared" ref="G71:L74" si="44">(((G67/$I67)/(G$5/$I$5))*(($K67/$I67)/($K$5/$I$5))^(G$3*-1)-1)*10000</f>
+      <c r="G72">
+        <f t="shared" ref="G72:L75" si="32">(((G68/$I68)/(G$6/$I$6))*(($K68/$I68)/($K$6/$I$6))^(G$4*-1)-1)*10000</f>
         <v>-0.10000000002063913</v>
       </c>
-      <c r="H71">
+      <c r="H72">
+        <f t="shared" si="32"/>
+        <v>-4.4081714751786905E-2</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="32"/>
+        <v>-2.3644974798120444E-2</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="32"/>
+        <v>-1.1102230246251565E-12</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="32"/>
+        <v>-2.587027249312257E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
+      <c r="G73">
+        <f t="shared" si="32"/>
+        <v>-9.9999999992883559E-2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="32"/>
+        <v>1.1644758712847647E-4</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="32"/>
+        <v>-2.3644974793679552E-2</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="32"/>
+        <v>-2.5870272489791901E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
+      <c r="G74">
+        <f t="shared" si="32"/>
+        <v>-9.9999999991773336E-2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="32"/>
+        <v>4.4314609910500735E-2</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="32"/>
+        <v>-2.3644974791459106E-2</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="32"/>
+        <v>-1.1102230246251565E-12</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="32"/>
+        <v>-2.5870272485351009E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
+      <c r="G75">
+        <f t="shared" si="32"/>
+        <v>-9.9999999990663113E-2</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="32"/>
+        <v>8.8512772231652548E-2</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="32"/>
+        <v>-2.3644974793679552E-2</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="32"/>
+        <v>-2.5870272487571455E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
+      <c r="A77" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="X77" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <f>X77</f>
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" ref="Z77" si="33">Y77</f>
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" ref="AA77" si="34">Z77</f>
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" ref="AB77" si="35">AA77</f>
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" ref="AC77" si="36">AB77</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
+      <c r="A78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="W78" t="str">
+        <f>IF(W$6="","",((1-$C79)*W$6)+($C79*W$8*W77))</f>
+        <v/>
+      </c>
+      <c r="X78">
+        <f>IF(X$6="","",X$6+(X$10*X77)/$C79)</f>
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" ref="Y78:AC78" si="37">IF(Y$6="","",Y$6+(Y$10*Y77)/$C79)</f>
+        <v>0.151314695255474</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="37"/>
+        <v>0.30320376597581999</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="37"/>
+        <v>0.37101697926429084</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="37"/>
+        <v>0.35902059906450129</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="37"/>
+        <v>0.15900036021655697</v>
+      </c>
+      <c r="AD78" t="str">
+        <f t="shared" ref="AD78" si="38">IF(AD$6="","",AD$6+(AD$10*AD77)/$C79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
+      <c r="A79" s="8" cm="1">
+        <f t="array" ref="A79">MAX(ABS(F79:AC79))</f>
+        <v>0.99999999999988987</v>
+      </c>
+      <c r="B79" s="4">
+        <f>C79*A79</f>
+        <v>120.38212993134276</v>
+      </c>
+      <c r="C79" s="5">
+        <v>120.38212993135602</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="X79">
+        <f>(((X78/$Z78)/(X$6/$Z$6))*(($AB78/$Z78)/($AB$6/$Z$6))^(X$4*-1)-1)*10000</f>
+        <v>0.3385044699855122</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" ref="Y79:AC79" si="39">(((Y78/$Z78)/(Y$6/$Z$6))*(($AB78/$Z78)/($AB$6/$Z$6))^(Y$4*-1)-1)*10000</f>
+        <v>0.99999999999988987</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="39"/>
+        <v>0.18235980074443603</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="39"/>
+        <v>-0.84420627716186303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
+      <c r="A81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="X81" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <f>X81</f>
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" ref="Z81" si="40">Y81</f>
+        <v>1</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" ref="AA81" si="41">Z81</f>
+        <v>1</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" ref="AB81" si="42">AA81</f>
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <f t="shared" ref="AC81" si="43">AB81</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
+      <c r="A82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+      <c r="W82" t="str">
+        <f>IF(W$6="","",((1-$C83)*W$6)+($C83*W$8*W81))</f>
+        <v/>
+      </c>
+      <c r="X82">
+        <f>IF(X$7="","",X$7+(X$8*X81)/$C83)</f>
+        <v>1.3627450980392155E-4</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" ref="Y82:AC82" si="44">IF(Y$7="","",Y$7+(Y$8*Y81)/$C83)</f>
+        <v>1.4549473051853094E-3</v>
+      </c>
+      <c r="Z82">
         <f t="shared" si="44"/>
-        <v>-4.4081714751786905E-2</v>
-      </c>
-      <c r="I71">
+        <v>2.8876551704538514E-3</v>
+      </c>
+      <c r="AA82">
         <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J71">
+        <v>3.5001644143547372E-3</v>
+      </c>
+      <c r="AB82">
         <f t="shared" si="44"/>
-        <v>-2.3644974798120444E-2</v>
-      </c>
-      <c r="K71">
+        <v>3.3242773033415091E-3</v>
+      </c>
+      <c r="AC82">
         <f t="shared" si="44"/>
-        <v>-1.1102230246251565E-12</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="44"/>
-        <v>-2.587027249312257E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="G72">
-        <f t="shared" si="44"/>
-        <v>-9.9999999992883559E-2</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="44"/>
-        <v>1.1644758712847647E-4</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="44"/>
-        <v>-2.3644974793679552E-2</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="44"/>
-        <v>-2.5870272489791901E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="G73">
-        <f t="shared" si="44"/>
-        <v>-9.9999999991773336E-2</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="44"/>
-        <v>4.4314609910500735E-2</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="44"/>
-        <v>-2.3644974791459106E-2</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="44"/>
-        <v>-1.1102230246251565E-12</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="44"/>
-        <v>-2.5870272485351009E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="G74">
-        <f t="shared" si="44"/>
-        <v>-9.9999999990663113E-2</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="44"/>
-        <v>8.8512772231652548E-2</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="44"/>
-        <v>-2.3644974793679552E-2</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="44"/>
-        <v>-2.5870272487571455E-2</v>
+        <v>1.4454581651443515E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
+      <c r="A83" s="8" cm="1">
+        <f t="array" ref="A83">MAX(ABS(F83:AC83))</f>
+        <v>0.99999962098085149</v>
+      </c>
+      <c r="B83" s="4">
+        <f>C83*A83</f>
+        <v>1317791.9788484299</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1317792.478317013</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="X83">
+        <f>(((X82/$Z82)/(X$7/$Z$7))*(($AB82/$Z82)/($AB$7/$Z$7))^(X$4*-1)-1)*10000</f>
+        <v>0.37539648441331508</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" ref="Y83:AC83" si="45">(((Y82/$Z82)/(Y$7/$Z$7))*(($AB82/$Z82)/($AB$7/$Z$7))^(Y$4*-1)-1)*10000</f>
+        <v>0.99999962098085149</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="45"/>
+        <v>0.18122869889669602</v>
+      </c>
+      <c r="AB83">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <f t="shared" si="45"/>
+        <v>-0.90334083549081789</v>
       </c>
     </row>
   </sheetData>
@@ -4462,7 +4951,7 @@
         <v>1.4251200342518119E-3</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="G25:AC25" si="69">IF(H$5="","",(H$7*H24))</f>
+        <f t="shared" ref="H25:AC25" si="69">IF(H$5="","",(H$7*H24))</f>
         <v>0.1910924900863431</v>
       </c>
       <c r="I25">
@@ -5054,7 +5543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0118524-C162-0045-AC4F-90051A5DCD7F}">
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -6839,4 +7328,1795 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EDDE07-7FC9-0642-8482-8A2C6133C6AF}">
+  <dimension ref="A1:AC66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3" customWidth="1"/>
+    <col min="23" max="23" width="3.83203125" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>91.90680716</v>
+      </c>
+      <c r="G2">
+        <v>93.905083590000004</v>
+      </c>
+      <c r="H2">
+        <v>94.905837439999999</v>
+      </c>
+      <c r="I2">
+        <v>95.90467477</v>
+      </c>
+      <c r="J2">
+        <v>96.906016899999997</v>
+      </c>
+      <c r="K2">
+        <v>97.905403609999993</v>
+      </c>
+      <c r="L2">
+        <v>99.907467999999994</v>
+      </c>
+      <c r="N2">
+        <v>95.907588910000001</v>
+      </c>
+      <c r="O2">
+        <v>97.905287000000001</v>
+      </c>
+      <c r="P2">
+        <v>98.905930299999994</v>
+      </c>
+      <c r="Q2">
+        <v>99.904210500000005</v>
+      </c>
+      <c r="R2">
+        <v>100.9055731</v>
+      </c>
+      <c r="S2">
+        <v>101.9043403</v>
+      </c>
+      <c r="T2">
+        <v>103.9054254</v>
+      </c>
+      <c r="V2">
+        <v>102.9054941</v>
+      </c>
+      <c r="X2">
+        <v>101.90563210000001</v>
+      </c>
+      <c r="Y2">
+        <v>103.9040304</v>
+      </c>
+      <c r="Z2">
+        <v>104.9050795</v>
+      </c>
+      <c r="AA2">
+        <v>105.9034803</v>
+      </c>
+      <c r="AB2">
+        <v>107.9038918</v>
+      </c>
+      <c r="AC2">
+        <v>109.9051729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <f>(LN(F$2)-LN($I$2))/(LN($K$2)-LN($I$2))</f>
+        <v>-2.0622654896035155</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:L3" si="0">(LN(G$2)-LN($I$2))/(LN($K$2)-LN($I$2))</f>
+        <v>-1.0204963126320516</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>-0.5070714180540099</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.50306948827691667</v>
+      </c>
+      <c r="K3">
+        <f>(LN(K$2)-LN($I$2))/(LN($K$2)-LN($I$2))</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1.9804174217763351</v>
+      </c>
+      <c r="N3">
+        <f>(LN(N$2)-LN($R$2))/(LN($P$2)-LN($R$2))</f>
+        <v>2.5379770247331326</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:T3" si="1">(LN(O$2)-LN($R$2))/(LN($P$2)-LN($R$2))</f>
+        <v>1.5080269493949841</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>0.49826876459393649</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>-0.49207598133426794</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="1"/>
+        <v>-1.4636297272902596</v>
+      </c>
+      <c r="X3">
+        <f>(LN(X$2)-LN($Z$2))/(LN($AB$2)-LN($Z$2))</f>
+        <v>-1.0292255886504609</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:AC3" si="2">(LN(Y$2)-LN($Z$2))/(LN($AB$2)-LN($Z$2))</f>
+        <v>-0.34018970353228256</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="2"/>
+        <v>0.33607160984629325</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="2"/>
+        <v>1.6520130166548828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.37</v>
+      </c>
+      <c r="G5">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.245</v>
+      </c>
+      <c r="K5">
+        <v>0.622</v>
+      </c>
+      <c r="L5">
+        <v>0.25</v>
+      </c>
+      <c r="N5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.224</v>
+      </c>
+      <c r="R5">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="S5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="T5">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="V5">
+        <v>0.37</v>
+      </c>
+      <c r="X5">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Y5">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="AA5">
+        <v>0.371</v>
+      </c>
+      <c r="AB5">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AC5">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.0969999999999999E-3</v>
+      </c>
+      <c r="H6">
+        <v>0.28118399999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.509575</v>
+      </c>
+      <c r="J6">
+        <v>0.15606500000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.51128399999999996</v>
+      </c>
+      <c r="L6">
+        <v>1.125E-2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>7.5137000000000009E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.24617600000000001</v>
+      </c>
+      <c r="R6">
+        <v>5.3807999999999995E-2</v>
+      </c>
+      <c r="S6">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="T6">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="V6">
+        <v>5.6239999999999998E-2</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0.18398079999999997</v>
+      </c>
+      <c r="Z6">
+        <v>4.7602400000000003E-2</v>
+      </c>
+      <c r="AA6">
+        <v>0.216664</v>
+      </c>
+      <c r="AB6">
+        <v>0.267814</v>
+      </c>
+      <c r="AC6">
+        <v>4.7699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <f>F6/SUM($F$6:$L$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:L7" si="3">G6/SUM($F$6:$L$6)</f>
+        <v>1.4251200342518119E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.1910924900863431</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.34630688672096666</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.10606168724153985</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.34746832217091245</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>7.6454937459861155E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:T7" si="4">N6/SUM($N$6:$T$6)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>0.11308643164499618</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0.37051206990748337</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>8.0984797289670243E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>0.42292462158781857</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>1.2492079570031652E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X7:AC7" si="5">X6/SUM($X$6:$AC$6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>0.25523423514409471</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>6.6038207003248472E-2</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="5"/>
+        <v>0.30057522482378674</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="5"/>
+        <v>0.37153497240408018</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="5"/>
+        <v>6.6173606247898259E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="X12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <f>X12</f>
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12:AC12" si="6">Y12</f>
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" t="str">
+        <f>IF(W$5="","",((1-$C14)*W$5)+($C14*W$6*W12))</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f t="shared" ref="X13:AC13" si="7">IF(X$5="","",(X$6*X12))</f>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f>IF(Y$5="","",(Y$6*Y12))</f>
+        <v>0.18398079999999997</v>
+      </c>
+      <c r="Z13">
+        <f>IF(Z$5="","",(Z$6*Z12))</f>
+        <v>4.7602400000000003E-2</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="7"/>
+        <v>0.216664</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="7"/>
+        <v>0.267814</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="7"/>
+        <v>4.7699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="X14">
+        <f>(X13/$Z13)/(X$5/$Z$5)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <f>(Y13/$Z13)/(Y$5/$Z$5)-1</f>
+        <v>6.7452229299363058</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" ref="Y14:AC14" si="8">(Z13/$Z13)/(Z$5/$Z$5)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="8"/>
+        <v>2.7197452229299364</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="8"/>
+        <v>3.7515923566878984</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="8"/>
+        <v>-0.80891719745222934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>F16</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:L16" si="9">G16</f>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f>N16</f>
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:T16" si="10">O16</f>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <f>X16</f>
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" ref="Z16:AC16" si="11">Y16</f>
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <f>IF(F$5="","",(F$6*F16))</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:AC17" si="12">IF(G$5="","",(G$6*G16))</f>
+        <v>2.0969999999999999E-3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="12"/>
+        <v>0.28118399999999999</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="12"/>
+        <v>0.509575</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="12"/>
+        <v>0.15606500000000001</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="12"/>
+        <v>0.51128399999999996</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="12"/>
+        <v>1.125E-2</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="12"/>
+        <v>7.5137000000000009E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="12"/>
+        <v>0.24617600000000001</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="12"/>
+        <v>5.3807999999999995E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="12"/>
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="12"/>
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="V17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="X17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="12"/>
+        <v>0.18398079999999997</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="12"/>
+        <v>4.7602400000000003E-2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="12"/>
+        <v>0.216664</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="12"/>
+        <v>0.267814</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="12"/>
+        <v>4.7699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <f>(G17/$I17)/(G$5/$I$5)-1</f>
+        <v>-0.99249374478732277</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:L18" si="13">(H17/$I17)/(H$5/$I$5)-1</f>
+        <v>-0.4195162635529609</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="13"/>
+        <v>-0.4687239366138447</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="13"/>
+        <v>-0.31442869057547973</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="13"/>
+        <v>-0.96246872393661387</v>
+      </c>
+      <c r="O18">
+        <f>(O17/$R17)/(O$5/$R$5)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:T18" si="14">(P17/$R17)/(P$5/$R$5)-1</f>
+        <v>0.87005649717514166</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="14"/>
+        <v>5.2090395480225995</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>1.8248587570621471</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="14"/>
+        <v>-0.85875706214689262</v>
+      </c>
+      <c r="X18">
+        <f>(X17/$Z17)/(X$5/$Z$5)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ref="Y18" si="15">(Y17/$Z17)/(Y$5/$Z$5)-1</f>
+        <v>6.7452229299363058</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ref="Z18" si="16">(Z17/$Z17)/(Z$5/$Z$5)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ref="AA18" si="17">(AA17/$Z17)/(AA$5/$Z$5)-1</f>
+        <v>2.7197452229299364</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ref="AB18" si="18">(AB17/$Z17)/(AB$5/$Z$5)-1</f>
+        <v>3.7515923566878984</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" ref="AC18" si="19">(AC17/$Z17)/(AC$5/$Z$5)-1</f>
+        <v>-0.80891719745222934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>F20</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:L20" si="20">G20</f>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <f>N20</f>
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:T20" si="21">O20</f>
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X20" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <f>X20</f>
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ref="Z20:AC20" si="22">Y20</f>
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <f>IF(F$5="","",(F$6*F20))</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:AC21" si="23">IF(G$5="","",(G$6*G20))</f>
+        <v>2.0969999999999999E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="23"/>
+        <v>0.28118399999999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="23"/>
+        <v>0.509575</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="23"/>
+        <v>0.15606500000000001</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="23"/>
+        <v>0.51128399999999996</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="23"/>
+        <v>1.125E-2</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="N21">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="23"/>
+        <v>0.15027400000000002</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="23"/>
+        <v>0.49235200000000001</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="23"/>
+        <v>0.10761599999999999</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="23"/>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="23"/>
+        <v>1.66E-2</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="V21">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="X21">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="23"/>
+        <v>0.55194239999999994</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="23"/>
+        <v>0.14280720000000002</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="23"/>
+        <v>0.64999200000000001</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="23"/>
+        <v>0.80344199999999999</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="23"/>
+        <v>1.431E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <f>(G21/$I21)/(G$5/$I$5)-1</f>
+        <v>-0.99249374478732277</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22" si="24">(H21/$I21)/(H$5/$I$5)-1</f>
+        <v>-0.4195162635529609</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22" si="25">(I21/$I21)/(I$5/$I$5)-1</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="26">(J21/$I21)/(J$5/$I$5)-1</f>
+        <v>-0.4687239366138447</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22" si="27">(K21/$I21)/(K$5/$I$5)-1</f>
+        <v>-0.31442869057547973</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22" si="28">(L21/$I21)/(L$5/$I$5)-1</f>
+        <v>-0.96246872393661387</v>
+      </c>
+      <c r="O22">
+        <f>(O21/$R21)/(O$5/$R$5)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22" si="29">(P21/$R21)/(P$5/$R$5)-1</f>
+        <v>0.87005649717514166</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22" si="30">(Q21/$R21)/(Q$5/$R$5)-1</f>
+        <v>5.2090395480225995</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22" si="31">(R21/$R21)/(R$5/$R$5)-1</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22" si="32">(S21/$R21)/(S$5/$R$5)-1</f>
+        <v>1.8248587570621471</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22" si="33">(T21/$R21)/(T$5/$R$5)-1</f>
+        <v>-0.85875706214689262</v>
+      </c>
+      <c r="X22">
+        <f>(X21/$Z21)/(X$5/$Z$5)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ref="Y22" si="34">(Y21/$Z21)/(Y$5/$Z$5)-1</f>
+        <v>6.7452229299363058</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ref="Z22" si="35">(Z21/$Z21)/(Z$5/$Z$5)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" ref="AA22" si="36">(AA21/$Z21)/(AA$5/$Z$5)-1</f>
+        <v>2.7197452229299364</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" ref="AB22" si="37">(AB21/$Z21)/(AB$5/$Z$5)-1</f>
+        <v>3.7515923566878984</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" ref="AC22" si="38">(AC21/$Z21)/(AC$5/$Z$5)-1</f>
+        <v>-0.80891719745222934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>F24</f>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:L24" si="39">G24</f>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <f>N24</f>
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:T24" si="40">O24</f>
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="X24" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <f>X24</f>
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ref="Z24:AC24" si="41">Y24</f>
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <f>IF(F$5="","",(F$7*F24))</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>IF(G$5="","",(G$7*G24))</f>
+        <v>1.4251200342518119E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:AC25" si="42">IF(H$5="","",(H$7*H24))</f>
+        <v>0.1910924900863431</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="42"/>
+        <v>0.34630688672096666</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="42"/>
+        <v>0.10606168724153985</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="42"/>
+        <v>0.34746832217091245</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="42"/>
+        <v>7.6454937459861155E-3</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="N25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="42"/>
+        <v>0.22617286328999237</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="42"/>
+        <v>0.74102413981496673</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="42"/>
+        <v>0.16196959457934049</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="42"/>
+        <v>0.84584924317563714</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="42"/>
+        <v>2.4984159140063304E-2</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="V25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="42"/>
+        <v>0.76570270543228414</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="42"/>
+        <v>0.19811462100974542</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="42"/>
+        <v>0.90172567447136021</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="42"/>
+        <v>1.1146049172122405</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="42"/>
+        <v>1.9852081874369477E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <f>(G25/$I25)/(G$5/$I$5)-1</f>
+        <v>-0.99249374478732277</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26" si="43">(H25/$I25)/(H$5/$I$5)-1</f>
+        <v>-0.4195162635529609</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26" si="44">(I25/$I25)/(I$5/$I$5)-1</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="45">(J25/$I25)/(J$5/$I$5)-1</f>
+        <v>-0.4687239366138447</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26" si="46">(K25/$I25)/(K$5/$I$5)-1</f>
+        <v>-0.31442869057547962</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26" si="47">(L25/$I25)/(L$5/$I$5)-1</f>
+        <v>-0.96246872393661387</v>
+      </c>
+      <c r="O26">
+        <f>(O25/$R25)/(O$5/$R$5)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26" si="48">(P25/$R25)/(P$5/$R$5)-1</f>
+        <v>0.87005649717514166</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26" si="49">(Q25/$R25)/(Q$5/$R$5)-1</f>
+        <v>5.2090395480225995</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ref="R26" si="50">(R25/$R25)/(R$5/$R$5)-1</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26" si="51">(S25/$R25)/(S$5/$R$5)-1</f>
+        <v>1.8248587570621471</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ref="T26" si="52">(T25/$R25)/(T$5/$R$5)-1</f>
+        <v>-0.85875706214689262</v>
+      </c>
+      <c r="X26">
+        <f>(X25/$Z25)/(X$5/$Z$5)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" ref="Y26" si="53">(Y25/$Z25)/(Y$5/$Z$5)-1</f>
+        <v>6.7452229299363058</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" ref="Z26" si="54">(Z25/$Z25)/(Z$5/$Z$5)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" ref="AA26" si="55">(AA25/$Z25)/(AA$5/$Z$5)-1</f>
+        <v>2.7197452229299364</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" ref="AB26" si="56">(AB25/$Z25)/(AB$5/$Z$5)-1</f>
+        <v>3.7515923566878993</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" ref="AC26" si="57">(AC25/$Z25)/(AC$5/$Z$5)-1</f>
+        <v>-0.80891719745222934</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="18">
+      <c r="A29" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f>F31</f>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:L31" si="58">G31</f>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="8"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="F32">
+        <v>0.01</v>
+      </c>
+      <c r="G32">
+        <v>0.01</v>
+      </c>
+      <c r="H32">
+        <v>0.02</v>
+      </c>
+      <c r="I32">
+        <v>0.01</v>
+      </c>
+      <c r="J32">
+        <v>0.01</v>
+      </c>
+      <c r="K32">
+        <v>0.01</v>
+      </c>
+      <c r="L32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="8"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+      <c r="G33">
+        <v>0.1</v>
+      </c>
+      <c r="H33">
+        <v>0.3</v>
+      </c>
+      <c r="I33">
+        <v>0.1</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33">
+        <v>0.1</v>
+      </c>
+      <c r="L33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="8"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.5</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0.5</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <f>IF(F$5="","",(F$6*F31))</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>IF(G$5="","",(G$6*G31))</f>
+        <v>2.0969999999999999E-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="G35:L35" si="59">IF(H$5="","",(H$6*H31))</f>
+        <v>0.28118399999999999</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="59"/>
+        <v>0.509575</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="59"/>
+        <v>0.15606500000000001</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="59"/>
+        <v>0.51128399999999996</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="59"/>
+        <v>1.125E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="F36">
+        <f t="shared" ref="F36:L38" si="60">IF(F$5="","",(F$6*F32))</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="60"/>
+        <v>2.0970000000000001E-5</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="60"/>
+        <v>5.6236799999999998E-3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="60"/>
+        <v>5.0957500000000005E-3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="60"/>
+        <v>1.5606500000000002E-3</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="60"/>
+        <v>5.1128399999999996E-3</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="60"/>
+        <v>1.125E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="F37">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="60"/>
+        <v>2.097E-4</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="60"/>
+        <v>8.4355199999999991E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="60"/>
+        <v>5.0957500000000003E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="60"/>
+        <v>1.5606500000000002E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="60"/>
+        <v>5.1128399999999997E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="60"/>
+        <v>1.1249999999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="F38">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>IF(G$5="","",(G$6*G34))</f>
+        <v>1.0485E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="60"/>
+        <v>0.56236799999999998</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="60"/>
+        <v>0.2547875</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="60"/>
+        <v>7.8032500000000005E-2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="60"/>
+        <v>0.25564199999999998</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="60"/>
+        <v>5.6249999999999998E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39">
+        <f>(G35/$I35)/(G$5/$I$5)-1</f>
+        <v>-0.99249374478732277</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:L39" si="61">(H35/$I35)/(H$5/$I$5)-1</f>
+        <v>-0.4195162635529609</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="61"/>
+        <v>-0.4687239366138447</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="61"/>
+        <v>-0.31442869057547973</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="61"/>
+        <v>-0.96246872393661387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="G40">
+        <f t="shared" ref="G40:L40" si="62">(G36/$I36)/(G$5/$I$5)-1</f>
+        <v>-0.99249374478732277</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="62"/>
+        <v>0.1609674728940782</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="62"/>
+        <v>-0.4687239366138447</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="62"/>
+        <v>-0.31442869057547973</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="62"/>
+        <v>-0.96246872393661387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="G41">
+        <f t="shared" ref="G41:L41" si="63">(G37/$I37)/(G$5/$I$5)-1</f>
+        <v>-0.99249374478732277</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="63"/>
+        <v>0.74145120934111697</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="63"/>
+        <v>-0.4687239366138447</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="63"/>
+        <v>-0.31442869057547973</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="63"/>
+        <v>-0.96246872393661387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="G42">
+        <f t="shared" ref="G42:L42" si="64">(G38/$I38)/(G$5/$I$5)-1</f>
+        <v>-0.99249374478732277</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="64"/>
+        <v>1.3219349457881564</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="64"/>
+        <v>-0.4687239366138447</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="64"/>
+        <v>-0.31442869057547973</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="64"/>
+        <v>-0.96246872393661387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="8"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="8"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="18">
+      <c r="A61" s="9"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="8"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="8"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>